--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="689">
   <si>
     <t>Contact Name</t>
   </si>
@@ -1688,15 +1688,15 @@
     <t>Kin Tin's Toys</t>
   </si>
   <si>
-    <t>General</t>
+    <t>Pewdiepie</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Youtuber</t>
   </si>
   <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
     <t>awesmrbusiness@gmail.com</t>
   </si>
   <si>
@@ -1733,33 +1733,15 @@
     <t>kintinstoysbiz@gmail.com</t>
   </si>
   <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
     <t>https://thetoyreviewervideos.com</t>
   </si>
   <si>
     <t>http://owenandliamstoyreview.com</t>
   </si>
   <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>TangiPlay</t>
-  </si>
-  <si>
     <t>There are sub channels as well. AWESMR Kids and AWESMR Toys are good choices for TangiPlay</t>
   </si>
   <si>
@@ -1772,9 +1754,6 @@
     <t>In Youtube About page: "I also love playing computer games like Star Stables Online, Roblox and other game apps on my I pad." They can be interested in TangiPlay products.</t>
   </si>
   <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/user/AwesomeDisneyToys/about</t>
   </si>
   <si>
@@ -1814,7 +1793,10 @@
     <t>https://www.youtube.com/channel/UCW0plBbM-eawl9FHQKplC7w/videos</t>
   </si>
   <si>
-    <t>Youtube</t>
+    <t>https://www.youtube.com/channel/Pewdiepie/videos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/Japan</t>
   </si>
   <si>
     <t>2237</t>
@@ -1826,7 +1808,7 @@
     <t>1844</t>
   </si>
   <si>
-    <t>3864</t>
+    <t>3865</t>
   </si>
   <si>
     <t>100</t>
@@ -1835,7 +1817,7 @@
     <t>1623</t>
   </si>
   <si>
-    <t>1118</t>
+    <t>1106</t>
   </si>
   <si>
     <t>1225</t>
@@ -1844,7 +1826,7 @@
     <t>216</t>
   </si>
   <si>
-    <t>338</t>
+    <t>337</t>
   </si>
   <si>
     <t>536</t>
@@ -1856,49 +1838,100 @@
     <t>22</t>
   </si>
   <si>
-    <t>Unnamed: 10</t>
-  </si>
-  <si>
-    <t>Unnamed: 11</t>
-  </si>
-  <si>
-    <t>3,895,424,648</t>
-  </si>
-  <si>
-    <t>2,545,755,043</t>
-  </si>
-  <si>
-    <t>1,357703,154</t>
-  </si>
-  <si>
-    <t>857,649,354</t>
-  </si>
-  <si>
-    <t>45,721,778</t>
-  </si>
-  <si>
-    <t>72,548,736</t>
-  </si>
-  <si>
-    <t>101,143,195</t>
-  </si>
-  <si>
-    <t>59,523,888</t>
-  </si>
-  <si>
-    <t>24,319,728</t>
-  </si>
-  <si>
-    <t>19,751,889</t>
-  </si>
-  <si>
-    <t>33,831,183</t>
-  </si>
-  <si>
-    <t>9,595,182</t>
-  </si>
-  <si>
-    <t>Unnamed: 12</t>
+    <t>3954</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>5.61M</t>
+  </si>
+  <si>
+    <t>2.44M</t>
+  </si>
+  <si>
+    <t>1.78M</t>
+  </si>
+  <si>
+    <t>1.46M</t>
+  </si>
+  <si>
+    <t>251K</t>
+  </si>
+  <si>
+    <t>143K</t>
+  </si>
+  <si>
+    <t>96.8K</t>
+  </si>
+  <si>
+    <t>53.8K</t>
+  </si>
+  <si>
+    <t>89.6K</t>
+  </si>
+  <si>
+    <t>54.9K</t>
+  </si>
+  <si>
+    <t>42.1K</t>
+  </si>
+  <si>
+    <t>49.8K</t>
+  </si>
+  <si>
+    <t>31.9K</t>
+  </si>
+  <si>
+    <t>101M</t>
+  </si>
+  <si>
+    <t>1.15K</t>
+  </si>
+  <si>
+    <t>3898039833</t>
+  </si>
+  <si>
+    <t>2547692862</t>
+  </si>
+  <si>
+    <t>1358448542</t>
+  </si>
+  <si>
+    <t>858160021</t>
+  </si>
+  <si>
+    <t>46031635</t>
+  </si>
+  <si>
+    <t>72573519</t>
+  </si>
+  <si>
+    <t>101175071</t>
+  </si>
+  <si>
+    <t>59583729</t>
+  </si>
+  <si>
+    <t>24556590</t>
+  </si>
+  <si>
+    <t>19760689</t>
+  </si>
+  <si>
+    <t>33840190</t>
+  </si>
+  <si>
+    <t>9817117</t>
+  </si>
+  <si>
+    <t>8583220</t>
+  </si>
+  <si>
+    <t>23422537393</t>
+  </si>
+  <si>
+    <t>330191</t>
   </si>
   <si>
     <t>https://www.instagram.com/teamawesmr/</t>
@@ -1928,27 +1961,6 @@
     <t>https://www.instagram.com/planetserenitychannel/</t>
   </si>
   <si>
-    <t>Instagram</t>
-  </si>
-  <si>
-    <t>Unnamed: 14</t>
-  </si>
-  <si>
-    <t>Unnamed: 15</t>
-  </si>
-  <si>
-    <t>Unnamed: 16</t>
-  </si>
-  <si>
-    <t>Unnamed: 17</t>
-  </si>
-  <si>
-    <t>Unnamed: 18</t>
-  </si>
-  <si>
-    <t>Unnamed: 19</t>
-  </si>
-  <si>
     <t>https://twitter.com/teamAWESMR</t>
   </si>
   <si>
@@ -1970,22 +1982,94 @@
     <t>https://twitter.com/PlanettSerenity</t>
   </si>
   <si>
-    <t>Unnamed: 21</t>
-  </si>
-  <si>
-    <t>Unnamed: 22</t>
-  </si>
-  <si>
-    <t>Unnamed: 23</t>
-  </si>
-  <si>
-    <t>Unnamed: 24</t>
-  </si>
-  <si>
-    <t>Unnamed: 25</t>
-  </si>
-  <si>
-    <t>Unnamed: 26</t>
+    <t>1,058</t>
+  </si>
+  <si>
+    <t>1,964</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1,402</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1,527</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>2,049</t>
+  </si>
+  <si>
+    <t>4,136</t>
+  </si>
+  <si>
+    <t>1,129</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>8,328</t>
+  </si>
+  <si>
+    <t>773</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>1,005</t>
   </si>
   <si>
     <t>https://www.facebook.com/pstoyreviews</t>
@@ -1998,12 +2082,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/mikeylikesityoutube</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Unnamed: 28</t>
   </si>
 </sst>
 </file>
@@ -6794,7 +6872,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6891,7 +6969,7 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -6905,7 +6983,7 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -6919,7 +6997,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -6933,13 +7011,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>544</v>
       </c>
       <c r="C5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D5" t="s">
         <v>560</v>
@@ -6951,22 +7029,22 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="L5" t="s">
-        <v>600</v>
-      </c>
-      <c r="M5">
-        <v>5600000</v>
+        <v>594</v>
+      </c>
+      <c r="M5" t="s">
+        <v>609</v>
       </c>
       <c r="N5" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="P5">
         <v>107</v>
@@ -6981,19 +7059,19 @@
         <v>150000</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="W5">
-        <v>1.058</v>
-      </c>
-      <c r="X5">
-        <v>57</v>
-      </c>
-      <c r="Y5">
-        <v>10</v>
-      </c>
-      <c r="Z5">
-        <v>2.049</v>
+        <v>648</v>
+      </c>
+      <c r="W5" t="s">
+        <v>655</v>
+      </c>
+      <c r="X5" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>669</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>677</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -7004,13 +7082,13 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>545</v>
       </c>
       <c r="C6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D6" t="s">
         <v>561</v>
@@ -7022,30 +7100,30 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="L6" t="s">
-        <v>601</v>
-      </c>
-      <c r="M6">
-        <v>2430000</v>
+        <v>595</v>
+      </c>
+      <c r="M6" t="s">
+        <v>610</v>
       </c>
       <c r="N6" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>546</v>
       </c>
       <c r="C7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D7" t="s">
         <v>562</v>
@@ -7057,27 +7135,27 @@
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="L7" t="s">
-        <v>602</v>
-      </c>
-      <c r="M7">
-        <v>1780000</v>
+        <v>596</v>
+      </c>
+      <c r="M7" t="s">
+        <v>611</v>
       </c>
       <c r="N7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>547</v>
       </c>
       <c r="C8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D8" t="s">
         <v>563</v>
@@ -7089,19 +7167,19 @@
         <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="L8" t="s">
-        <v>603</v>
-      </c>
-      <c r="M8">
-        <v>1460000</v>
+        <v>597</v>
+      </c>
+      <c r="M8" t="s">
+        <v>612</v>
       </c>
       <c r="N8" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="P8">
         <v>289</v>
@@ -7116,19 +7194,19 @@
         <v>600</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="W8">
-        <v>1.964</v>
-      </c>
-      <c r="X8">
-        <v>16</v>
-      </c>
-      <c r="Y8">
-        <v>12</v>
-      </c>
-      <c r="Z8">
-        <v>4.136</v>
+        <v>649</v>
+      </c>
+      <c r="W8" t="s">
+        <v>656</v>
+      </c>
+      <c r="X8" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>670</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>678</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -7137,7 +7215,7 @@
         <v>10</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="AD8">
         <v>5.962</v>
@@ -7145,13 +7223,13 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>548</v>
       </c>
       <c r="C9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D9" t="s">
         <v>564</v>
@@ -7163,19 +7241,19 @@
         <v>4</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="L9" t="s">
-        <v>604</v>
-      </c>
-      <c r="M9">
-        <v>250000</v>
+        <v>598</v>
+      </c>
+      <c r="M9" t="s">
+        <v>613</v>
       </c>
       <c r="N9" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="P9">
         <v>85</v>
@@ -7190,36 +7268,36 @@
         <v>30</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="W9">
-        <v>965</v>
-      </c>
-      <c r="X9">
-        <v>725</v>
-      </c>
-      <c r="Y9">
-        <v>1527</v>
-      </c>
-      <c r="Z9">
-        <v>1.129</v>
+        <v>650</v>
+      </c>
+      <c r="W9" t="s">
+        <v>657</v>
+      </c>
+      <c r="X9" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>671</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>549</v>
       </c>
       <c r="C10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D10" t="s">
         <v>565</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H10" t="s">
         <v>295</v>
@@ -7228,19 +7306,19 @@
         <v>5</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="L10" t="s">
-        <v>605</v>
-      </c>
-      <c r="M10">
-        <v>142000</v>
+        <v>599</v>
+      </c>
+      <c r="M10" t="s">
+        <v>614</v>
       </c>
       <c r="N10" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="P10">
         <v>1.018</v>
@@ -7252,19 +7330,19 @@
         <v>69</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="W10">
-        <v>10.4</v>
-      </c>
-      <c r="X10">
-        <v>84</v>
-      </c>
-      <c r="Y10">
-        <v>9</v>
-      </c>
-      <c r="Z10">
-        <v>1.102</v>
+        <v>642</v>
+      </c>
+      <c r="W10" t="s">
+        <v>658</v>
+      </c>
+      <c r="X10" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>672</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>680</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -7275,13 +7353,13 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>550</v>
       </c>
       <c r="C11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D11" t="s">
         <v>566</v>
@@ -7293,22 +7371,22 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="L11" t="s">
-        <v>606</v>
-      </c>
-      <c r="M11">
-        <v>96800</v>
+        <v>600</v>
+      </c>
+      <c r="M11" t="s">
+        <v>615</v>
       </c>
       <c r="N11" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="P11">
         <v>1.272</v>
@@ -7323,19 +7401,19 @@
         <v>30</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="W11">
-        <v>658</v>
-      </c>
-      <c r="X11">
-        <v>1.402</v>
-      </c>
-      <c r="Y11">
-        <v>33</v>
-      </c>
-      <c r="Z11">
-        <v>8.327999999999999</v>
+        <v>651</v>
+      </c>
+      <c r="W11" t="s">
+        <v>659</v>
+      </c>
+      <c r="X11" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>673</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>681</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -7344,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="AD11">
         <v>188</v>
@@ -7352,40 +7430,40 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>551</v>
       </c>
       <c r="C12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D12" t="s">
         <v>565</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H12" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I12">
         <v>4</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="L12" t="s">
-        <v>607</v>
-      </c>
-      <c r="M12">
-        <v>53700</v>
+        <v>601</v>
+      </c>
+      <c r="M12" t="s">
+        <v>616</v>
       </c>
       <c r="N12" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="P12">
         <v>11</v>
@@ -7400,30 +7478,30 @@
         <v>30</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="W12">
-        <v>44</v>
-      </c>
-      <c r="X12">
-        <v>16</v>
-      </c>
-      <c r="Y12">
-        <v>136</v>
-      </c>
-      <c r="Z12">
-        <v>772</v>
+        <v>652</v>
+      </c>
+      <c r="W12" t="s">
+        <v>660</v>
+      </c>
+      <c r="X12" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>552</v>
       </c>
       <c r="C13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D13" t="s">
         <v>567</v>
@@ -7435,19 +7513,19 @@
         <v>4</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="L13" t="s">
-        <v>608</v>
-      </c>
-      <c r="M13">
-        <v>88600</v>
+        <v>602</v>
+      </c>
+      <c r="M13" t="s">
+        <v>617</v>
       </c>
       <c r="N13" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="P13">
         <v>270</v>
@@ -7462,19 +7540,19 @@
         <v>50</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="W13">
-        <v>806</v>
-      </c>
-      <c r="X13">
-        <v>259</v>
-      </c>
-      <c r="Y13">
-        <v>467</v>
-      </c>
-      <c r="Z13">
-        <v>282</v>
+        <v>653</v>
+      </c>
+      <c r="W13" t="s">
+        <v>661</v>
+      </c>
+      <c r="X13" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>683</v>
       </c>
       <c r="AA13">
         <v>1</v>
@@ -7483,7 +7561,7 @@
         <v>10</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="AD13">
         <v>236</v>
@@ -7491,7 +7569,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>553</v>
@@ -7506,21 +7584,21 @@
         <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="L14" t="s">
-        <v>609</v>
-      </c>
-      <c r="M14">
-        <v>54800</v>
+        <v>603</v>
+      </c>
+      <c r="M14" t="s">
+        <v>618</v>
       </c>
       <c r="N14" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>554</v>
@@ -7535,19 +7613,19 @@
         <v>4</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="L15" t="s">
-        <v>610</v>
-      </c>
-      <c r="M15">
-        <v>42100</v>
+        <v>604</v>
+      </c>
+      <c r="M15" t="s">
+        <v>619</v>
       </c>
       <c r="N15" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="P15">
         <v>1.153</v>
@@ -7562,7 +7640,7 @@
         <v>30</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="AD15">
         <v>57</v>
@@ -7570,7 +7648,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>555</v>
@@ -7585,22 +7663,22 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="L16" t="s">
-        <v>611</v>
-      </c>
-      <c r="M16">
-        <v>49600</v>
+        <v>605</v>
+      </c>
+      <c r="M16" t="s">
+        <v>620</v>
       </c>
       <c r="N16" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="P16">
         <v>260</v>
@@ -7615,24 +7693,24 @@
         <v>100</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="W16">
-        <v>707</v>
-      </c>
-      <c r="X16">
-        <v>142</v>
-      </c>
-      <c r="Y16">
-        <v>547</v>
-      </c>
-      <c r="Z16">
-        <v>1.004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
+        <v>654</v>
+      </c>
+      <c r="W16" t="s">
+        <v>662</v>
+      </c>
+      <c r="X16" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>676</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>556</v>
@@ -7644,102 +7722,56 @@
         <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="L17" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+        <v>606</v>
+      </c>
+      <c r="M17" t="s">
+        <v>621</v>
+      </c>
+      <c r="N17" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>557</v>
       </c>
-      <c r="C18" t="s">
-        <v>559</v>
-      </c>
-      <c r="D18" t="s">
-        <v>572</v>
-      </c>
-      <c r="E18" t="s">
-        <v>573</v>
-      </c>
-      <c r="F18" t="s">
-        <v>576</v>
-      </c>
-      <c r="G18" t="s">
-        <v>577</v>
-      </c>
-      <c r="H18" t="s">
-        <v>579</v>
-      </c>
-      <c r="I18" t="s">
-        <v>580</v>
-      </c>
-      <c r="J18" t="s">
-        <v>585</v>
-      </c>
-      <c r="K18" t="s">
-        <v>599</v>
+      <c r="K18" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="L18" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="M18" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="N18" t="s">
-        <v>627</v>
-      </c>
-      <c r="O18" t="s">
         <v>637</v>
       </c>
-      <c r="P18" t="s">
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>558</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="L19" t="s">
+        <v>608</v>
+      </c>
+      <c r="M19" t="s">
+        <v>623</v>
+      </c>
+      <c r="N19" t="s">
         <v>638</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>639</v>
-      </c>
-      <c r="R18" t="s">
-        <v>640</v>
-      </c>
-      <c r="S18" t="s">
-        <v>641</v>
-      </c>
-      <c r="T18" t="s">
-        <v>642</v>
-      </c>
-      <c r="U18" t="s">
-        <v>643</v>
-      </c>
-      <c r="V18" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" t="s">
-        <v>651</v>
-      </c>
-      <c r="X18" t="s">
-        <v>652</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>653</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>654</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>656</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>661</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -7780,6 +7812,8 @@
     <hyperlink ref="O16" r:id="rId34"/>
     <hyperlink ref="V16" r:id="rId35"/>
     <hyperlink ref="K17" r:id="rId36"/>
+    <hyperlink ref="K18" r:id="rId37"/>
+    <hyperlink ref="K19" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="719">
   <si>
     <t>Contact Name</t>
   </si>
@@ -1694,6 +1694,9 @@
     <t>Japan</t>
   </si>
   <si>
+    <t>Deneme</t>
+  </si>
+  <si>
     <t>Youtuber</t>
   </si>
   <si>
@@ -1817,25 +1820,25 @@
     <t>1623</t>
   </si>
   <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>1225</t>
+    <t>1375</t>
+  </si>
+  <si>
+    <t>1220</t>
   </si>
   <si>
     <t>216</t>
   </si>
   <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>343</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>3954</t>
@@ -1862,25 +1865,25 @@
     <t>143K</t>
   </si>
   <si>
-    <t>96.8K</t>
-  </si>
-  <si>
-    <t>53.8K</t>
-  </si>
-  <si>
-    <t>89.6K</t>
-  </si>
-  <si>
-    <t>54.9K</t>
+    <t>96.7K</t>
+  </si>
+  <si>
+    <t>53.6K</t>
+  </si>
+  <si>
+    <t>89.7K</t>
+  </si>
+  <si>
+    <t>54.6K</t>
   </si>
   <si>
     <t>42.1K</t>
   </si>
   <si>
-    <t>49.8K</t>
-  </si>
-  <si>
-    <t>31.9K</t>
+    <t>47.5K</t>
+  </si>
+  <si>
+    <t>30.5K</t>
   </si>
   <si>
     <t>101M</t>
@@ -1889,49 +1892,49 @@
     <t>1.15K</t>
   </si>
   <si>
-    <t>3898039833</t>
-  </si>
-  <si>
-    <t>2547692862</t>
-  </si>
-  <si>
-    <t>1358448542</t>
-  </si>
-  <si>
-    <t>858160021</t>
-  </si>
-  <si>
-    <t>46031635</t>
-  </si>
-  <si>
-    <t>72573519</t>
-  </si>
-  <si>
-    <t>101175071</t>
-  </si>
-  <si>
-    <t>59583729</t>
-  </si>
-  <si>
-    <t>24556590</t>
-  </si>
-  <si>
-    <t>19760689</t>
-  </si>
-  <si>
-    <t>33840190</t>
-  </si>
-  <si>
-    <t>9817117</t>
-  </si>
-  <si>
-    <t>8583220</t>
-  </si>
-  <si>
-    <t>23422537393</t>
-  </si>
-  <si>
-    <t>330191</t>
+    <t>3898393797</t>
+  </si>
+  <si>
+    <t>2548069709</t>
+  </si>
+  <si>
+    <t>1358534056</t>
+  </si>
+  <si>
+    <t>858253080</t>
+  </si>
+  <si>
+    <t>46085617</t>
+  </si>
+  <si>
+    <t>72577573</t>
+  </si>
+  <si>
+    <t>101032464</t>
+  </si>
+  <si>
+    <t>59343517</t>
+  </si>
+  <si>
+    <t>24612751</t>
+  </si>
+  <si>
+    <t>20468490</t>
+  </si>
+  <si>
+    <t>33802239</t>
+  </si>
+  <si>
+    <t>9030377</t>
+  </si>
+  <si>
+    <t>8227093</t>
+  </si>
+  <si>
+    <t>23429174535</t>
+  </si>
+  <si>
+    <t>330188</t>
   </si>
   <si>
     <t>https://www.instagram.com/teamawesmr/</t>
@@ -1961,6 +1964,96 @@
     <t>https://www.instagram.com/planetserenitychannel/</t>
   </si>
   <si>
+    <t>https://www.instagram.com/hazarblablabla/</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>1,018</t>
+  </si>
+  <si>
+    <t>1,274</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>1,153</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>42.1k</t>
+  </si>
+  <si>
+    <t>27.2k</t>
+  </si>
+  <si>
+    <t>1,248</t>
+  </si>
+  <si>
+    <t>1,066</t>
+  </si>
+  <si>
+    <t>2,316</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>1,325</t>
+  </si>
+  <si>
+    <t>1,114</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2,326</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>5,775</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>https://twitter.com/teamAWESMR</t>
   </si>
   <si>
@@ -2010,9 +2103,6 @@
   </si>
   <si>
     <t>725</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>1,402</t>
@@ -6872,7 +6962,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7017,10 +7107,10 @@
         <v>544</v>
       </c>
       <c r="C5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H5" t="s">
         <v>295</v>
@@ -7029,49 +7119,49 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="P5">
-        <v>107</v>
-      </c>
-      <c r="Q5">
-        <v>41700</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
+        <v>640</v>
+      </c>
+      <c r="P5" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>659</v>
+      </c>
+      <c r="R5" t="s">
+        <v>669</v>
       </c>
       <c r="T5">
         <v>150000</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="W5" t="s">
-        <v>655</v>
+        <v>686</v>
       </c>
       <c r="X5" t="s">
-        <v>663</v>
+        <v>694</v>
       </c>
       <c r="Y5" t="s">
-        <v>669</v>
+        <v>699</v>
       </c>
       <c r="Z5" t="s">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -7088,10 +7178,10 @@
         <v>545</v>
       </c>
       <c r="C6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H6" t="s">
         <v>295</v>
@@ -7100,19 +7190,19 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -7123,10 +7213,10 @@
         <v>546</v>
       </c>
       <c r="C7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H7" t="s">
         <v>295</v>
@@ -7135,16 +7225,16 @@
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -7155,10 +7245,10 @@
         <v>547</v>
       </c>
       <c r="C8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H8" t="s">
         <v>295</v>
@@ -7167,46 +7257,46 @@
         <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="P8">
-        <v>289</v>
-      </c>
-      <c r="Q8">
-        <v>27200</v>
-      </c>
-      <c r="R8">
-        <v>38</v>
+        <v>641</v>
+      </c>
+      <c r="P8" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>660</v>
+      </c>
+      <c r="R8" t="s">
+        <v>670</v>
       </c>
       <c r="T8">
         <v>600</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="W8" t="s">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="X8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Y8" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="Z8" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -7215,7 +7305,7 @@
         <v>10</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="AD8">
         <v>5.962</v>
@@ -7229,10 +7319,10 @@
         <v>548</v>
       </c>
       <c r="C9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H9" t="s">
         <v>295</v>
@@ -7241,46 +7331,46 @@
         <v>4</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="P9">
-        <v>85</v>
-      </c>
-      <c r="Q9">
-        <v>1243</v>
-      </c>
-      <c r="R9">
-        <v>2327</v>
+        <v>642</v>
+      </c>
+      <c r="P9" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>661</v>
+      </c>
+      <c r="R9" t="s">
+        <v>671</v>
       </c>
       <c r="T9">
         <v>30</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>650</v>
+        <v>681</v>
       </c>
       <c r="W9" t="s">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="X9" t="s">
-        <v>664</v>
+        <v>695</v>
       </c>
       <c r="Y9" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="Z9" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -7291,13 +7381,13 @@
         <v>549</v>
       </c>
       <c r="C10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H10" t="s">
         <v>295</v>
@@ -7306,43 +7396,43 @@
         <v>5</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="P10">
-        <v>1.018</v>
-      </c>
-      <c r="Q10">
-        <v>1.065</v>
-      </c>
-      <c r="R10">
-        <v>69</v>
+        <v>643</v>
+      </c>
+      <c r="P10" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>662</v>
+      </c>
+      <c r="R10" t="s">
+        <v>672</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="W10" t="s">
-        <v>658</v>
+        <v>689</v>
       </c>
       <c r="X10" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="Y10" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="Z10" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -7359,10 +7449,10 @@
         <v>550</v>
       </c>
       <c r="C11" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H11" t="s">
         <v>295</v>
@@ -7371,49 +7461,49 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M11" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N11" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="P11">
-        <v>1.272</v>
-      </c>
-      <c r="Q11">
-        <v>2.309</v>
-      </c>
-      <c r="R11">
-        <v>5.554</v>
+        <v>644</v>
+      </c>
+      <c r="P11" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>663</v>
+      </c>
+      <c r="R11" t="s">
+        <v>673</v>
       </c>
       <c r="T11">
         <v>30</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="W11" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="X11" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="Y11" t="s">
-        <v>673</v>
+        <v>703</v>
       </c>
       <c r="Z11" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -7422,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="AD11">
         <v>188</v>
@@ -7436,61 +7526,61 @@
         <v>551</v>
       </c>
       <c r="C12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I12">
         <v>4</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L12" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N12" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="P12">
-        <v>11</v>
-      </c>
-      <c r="Q12">
-        <v>132</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
+        <v>645</v>
+      </c>
+      <c r="P12" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>664</v>
+      </c>
+      <c r="R12" t="s">
+        <v>674</v>
       </c>
       <c r="T12">
         <v>30</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>652</v>
+        <v>683</v>
       </c>
       <c r="W12" t="s">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="X12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Y12" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="Z12" t="s">
-        <v>682</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -7501,10 +7591,10 @@
         <v>552</v>
       </c>
       <c r="C13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H13" t="s">
         <v>295</v>
@@ -7513,46 +7603,46 @@
         <v>4</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L13" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="P13">
-        <v>270</v>
-      </c>
-      <c r="Q13">
-        <v>1.323</v>
-      </c>
-      <c r="R13">
-        <v>488</v>
+        <v>646</v>
+      </c>
+      <c r="P13" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>665</v>
+      </c>
+      <c r="R13" t="s">
+        <v>675</v>
       </c>
       <c r="T13">
         <v>50</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>653</v>
+        <v>684</v>
       </c>
       <c r="W13" t="s">
-        <v>661</v>
+        <v>692</v>
       </c>
       <c r="X13" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="Y13" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="Z13" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="AA13">
         <v>1</v>
@@ -7561,7 +7651,7 @@
         <v>10</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="AD13">
         <v>236</v>
@@ -7575,7 +7665,7 @@
         <v>553</v>
       </c>
       <c r="D14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H14" t="s">
         <v>295</v>
@@ -7584,16 +7674,16 @@
         <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L14" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M14" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -7604,7 +7694,7 @@
         <v>554</v>
       </c>
       <c r="D15" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H15" t="s">
         <v>295</v>
@@ -7613,34 +7703,34 @@
         <v>4</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L15" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M15" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N15" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="P15">
-        <v>1.153</v>
-      </c>
-      <c r="Q15">
-        <v>1.113</v>
-      </c>
-      <c r="R15">
-        <v>391</v>
+        <v>647</v>
+      </c>
+      <c r="P15" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>666</v>
+      </c>
+      <c r="R15" t="s">
+        <v>676</v>
       </c>
       <c r="T15">
         <v>30</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="AD15">
         <v>57</v>
@@ -7654,7 +7744,7 @@
         <v>555</v>
       </c>
       <c r="D16" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H16" t="s">
         <v>296</v>
@@ -7663,52 +7753,52 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L16" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M16" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N16" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="P16">
-        <v>260</v>
-      </c>
-      <c r="Q16">
-        <v>754</v>
-      </c>
-      <c r="R16">
-        <v>330</v>
+        <v>648</v>
+      </c>
+      <c r="P16" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>667</v>
+      </c>
+      <c r="R16" t="s">
+        <v>677</v>
       </c>
       <c r="T16">
         <v>100</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="W16" t="s">
-        <v>662</v>
+        <v>693</v>
       </c>
       <c r="X16" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="Y16" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="Z16" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7716,25 +7806,25 @@
         <v>556</v>
       </c>
       <c r="D17" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I17">
         <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L17" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M17" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N17" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7742,19 +7832,19 @@
         <v>557</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L18" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N18" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7762,16 +7852,36 @@
         <v>558</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L19" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M19" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N19" t="s">
-        <v>638</v>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>559</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="P20" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>668</v>
+      </c>
+      <c r="R20" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -7814,6 +7924,7 @@
     <hyperlink ref="K17" r:id="rId36"/>
     <hyperlink ref="K18" r:id="rId37"/>
     <hyperlink ref="K19" r:id="rId38"/>
+    <hyperlink ref="O20" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="660">
   <si>
     <t>Contact Name</t>
   </si>
@@ -1625,10 +1625,10 @@
     <t>Twitter Link</t>
   </si>
   <si>
-    <t>Followers.1</t>
-  </si>
-  <si>
-    <t>Following.1</t>
+    <t>Followers_t</t>
+  </si>
+  <si>
+    <t>Following_t</t>
   </si>
   <si>
     <t>Likes</t>
@@ -1640,7 +1640,7 @@
     <t>Avg Retweets</t>
   </si>
   <si>
-    <t>Avg Likes.1</t>
+    <t>Avg Likes_t</t>
   </si>
   <si>
     <t>Facebook Link</t>
@@ -1802,318 +1802,171 @@
     <t>https://www.youtube.com/channel/Japan</t>
   </si>
   <si>
-    <t>2237</t>
-  </si>
-  <si>
-    <t>2027</t>
+    <t>2238</t>
+  </si>
+  <si>
+    <t>2028</t>
   </si>
   <si>
     <t>1844</t>
   </si>
   <si>
-    <t>3865</t>
+    <t>3866</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>1623</t>
-  </si>
-  <si>
-    <t>1375</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>3954</t>
+    <t>5.61M</t>
+  </si>
+  <si>
+    <t>2.44M</t>
+  </si>
+  <si>
+    <t>1.78M</t>
+  </si>
+  <si>
+    <t>1.46M</t>
+  </si>
+  <si>
+    <t>251K</t>
+  </si>
+  <si>
+    <t>3899243060</t>
+  </si>
+  <si>
+    <t>2548759255</t>
+  </si>
+  <si>
+    <t>1358716007</t>
+  </si>
+  <si>
+    <t>858396934</t>
+  </si>
+  <si>
+    <t>46085617</t>
+  </si>
+  <si>
+    <t>72,548,736</t>
+  </si>
+  <si>
+    <t>101,143,195</t>
+  </si>
+  <si>
+    <t>59,523,888</t>
+  </si>
+  <si>
+    <t>24,319,728</t>
+  </si>
+  <si>
+    <t>19,751,889</t>
+  </si>
+  <si>
+    <t>33,831,183</t>
+  </si>
+  <si>
+    <t>9,595,182</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/teamawesmr/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pstoyreviews/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/joshuasfunvideo/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thetoyreviewer/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/FamilyToyReview/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/owenandliam/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jacestoyplayhouse/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mikey_likes_it1/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/planetserenitychannel/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hazarblablabla/</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>42.2k</t>
+  </si>
+  <si>
+    <t>27.2k</t>
+  </si>
+  <si>
+    <t>1,246</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2,324</t>
+  </si>
+  <si>
+    <t>https://twitter.com/teamAWESMR</t>
+  </si>
+  <si>
+    <t>https://twitter.com/pstoyreviews</t>
+  </si>
+  <si>
+    <t>https://twitter.com/JoshuasFunvideo</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/thetoyreviewer/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/FamilyToyReview</t>
+  </si>
+  <si>
+    <t>https://twitter.com/OwenAndLiam</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jacesplayhouse</t>
+  </si>
+  <si>
+    <t>https://twitter.com/PlanettSerenity</t>
+  </si>
+  <si>
+    <t>1,058</t>
+  </si>
+  <si>
+    <t>1,966</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>5.61M</t>
-  </si>
-  <si>
-    <t>2.44M</t>
-  </si>
-  <si>
-    <t>1.78M</t>
-  </si>
-  <si>
-    <t>1.46M</t>
-  </si>
-  <si>
-    <t>251K</t>
-  </si>
-  <si>
-    <t>143K</t>
-  </si>
-  <si>
-    <t>96.7K</t>
-  </si>
-  <si>
-    <t>53.6K</t>
-  </si>
-  <si>
-    <t>89.7K</t>
-  </si>
-  <si>
-    <t>54.6K</t>
-  </si>
-  <si>
-    <t>42.1K</t>
-  </si>
-  <si>
-    <t>47.5K</t>
-  </si>
-  <si>
-    <t>30.5K</t>
-  </si>
-  <si>
-    <t>101M</t>
-  </si>
-  <si>
-    <t>1.15K</t>
-  </si>
-  <si>
-    <t>3898393797</t>
-  </si>
-  <si>
-    <t>2548069709</t>
-  </si>
-  <si>
-    <t>1358534056</t>
-  </si>
-  <si>
-    <t>858253080</t>
-  </si>
-  <si>
-    <t>46085617</t>
-  </si>
-  <si>
-    <t>72577573</t>
-  </si>
-  <si>
-    <t>101032464</t>
-  </si>
-  <si>
-    <t>59343517</t>
-  </si>
-  <si>
-    <t>24612751</t>
-  </si>
-  <si>
-    <t>20468490</t>
-  </si>
-  <si>
-    <t>33802239</t>
-  </si>
-  <si>
-    <t>9030377</t>
-  </si>
-  <si>
-    <t>8227093</t>
-  </si>
-  <si>
-    <t>23429174535</t>
-  </si>
-  <si>
-    <t>330188</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/teamawesmr/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/pstoyreviews/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/joshuasfunvideo/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/thetoyreviewer/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/FamilyToyReview/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/owenandliam/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jacestoyplayhouse/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/mikey_likes_it1/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/planetserenitychannel/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/hazarblablabla/</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>1,018</t>
-  </si>
-  <si>
-    <t>1,274</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>1,153</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>42.1k</t>
-  </si>
-  <si>
-    <t>27.2k</t>
-  </si>
-  <si>
-    <t>1,248</t>
-  </si>
-  <si>
-    <t>1,066</t>
-  </si>
-  <si>
-    <t>2,316</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>1,325</t>
-  </si>
-  <si>
-    <t>1,114</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2,326</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>5,775</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>https://twitter.com/teamAWESMR</t>
-  </si>
-  <si>
-    <t>https://twitter.com/pstoyreviews</t>
-  </si>
-  <si>
-    <t>https://twitter.com/JoshuasFunvideo</t>
-  </si>
-  <si>
-    <t>https://twitter.com/FamilyToyReview</t>
-  </si>
-  <si>
-    <t>https://twitter.com/OwenAndLiam</t>
-  </si>
-  <si>
-    <t>https://twitter.com/jacesplayhouse</t>
-  </si>
-  <si>
-    <t>https://twitter.com/PlanettSerenity</t>
-  </si>
-  <si>
-    <t>1,058</t>
-  </si>
-  <si>
-    <t>1,964</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>658</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>725</t>
   </si>
   <si>
-    <t>1,402</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -2123,21 +1976,6 @@
     <t>1,527</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
     <t>2,049</t>
   </si>
   <si>
@@ -2145,21 +1983,6 @@
   </si>
   <si>
     <t>1,129</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>8,328</t>
-  </si>
-  <si>
-    <t>773</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>1,005</t>
   </si>
   <si>
     <t>https://www.facebook.com/pstoyreviews</t>
@@ -7128,40 +6951,40 @@
         <v>595</v>
       </c>
       <c r="M5" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="P5" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="Q5" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="R5" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="T5">
         <v>150000</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>679</v>
+        <v>636</v>
       </c>
       <c r="W5" t="s">
-        <v>686</v>
+        <v>644</v>
       </c>
       <c r="X5" t="s">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="Y5" t="s">
-        <v>699</v>
+        <v>650</v>
       </c>
       <c r="Z5" t="s">
-        <v>707</v>
+        <v>653</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -7199,10 +7022,10 @@
         <v>596</v>
       </c>
       <c r="M6" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="N6" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -7231,10 +7054,10 @@
         <v>597</v>
       </c>
       <c r="M7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="N7" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -7263,40 +7086,40 @@
         <v>598</v>
       </c>
       <c r="M8" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="N8" t="s">
+        <v>608</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="P8" t="s">
         <v>628</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="P8" t="s">
-        <v>651</v>
-      </c>
       <c r="Q8" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
       <c r="R8" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="T8">
         <v>600</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>680</v>
+        <v>637</v>
       </c>
       <c r="W8" t="s">
-        <v>687</v>
+        <v>645</v>
       </c>
       <c r="X8" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="Y8" t="s">
-        <v>700</v>
+        <v>651</v>
       </c>
       <c r="Z8" t="s">
-        <v>708</v>
+        <v>654</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -7305,7 +7128,7 @@
         <v>10</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>715</v>
+        <v>656</v>
       </c>
       <c r="AD8">
         <v>5.962</v>
@@ -7337,40 +7160,40 @@
         <v>599</v>
       </c>
       <c r="M9" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="N9" t="s">
+        <v>609</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="P9" t="s">
         <v>629</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="P9" t="s">
-        <v>652</v>
-      </c>
       <c r="Q9" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="R9" t="s">
-        <v>671</v>
+        <v>635</v>
       </c>
       <c r="T9">
         <v>30</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>681</v>
+        <v>638</v>
       </c>
       <c r="W9" t="s">
-        <v>688</v>
+        <v>646</v>
       </c>
       <c r="X9" t="s">
-        <v>695</v>
+        <v>649</v>
       </c>
       <c r="Y9" t="s">
-        <v>701</v>
+        <v>652</v>
       </c>
       <c r="Z9" t="s">
-        <v>709</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -7398,41 +7221,29 @@
       <c r="K10" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="L10" t="s">
-        <v>600</v>
-      </c>
-      <c r="M10" t="s">
-        <v>615</v>
+      <c r="L10">
+        <v>1.623</v>
+      </c>
+      <c r="M10">
+        <v>142000</v>
       </c>
       <c r="N10" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="P10" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>662</v>
-      </c>
-      <c r="R10" t="s">
-        <v>672</v>
+        <v>620</v>
+      </c>
+      <c r="P10">
+        <v>1.018</v>
+      </c>
+      <c r="Q10">
+        <v>1.065</v>
+      </c>
+      <c r="R10">
+        <v>69</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="W10" t="s">
-        <v>689</v>
-      </c>
-      <c r="X10" t="s">
-        <v>669</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>702</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>710</v>
+        <v>639</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -7466,44 +7277,32 @@
       <c r="K11" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="L11" t="s">
-        <v>601</v>
-      </c>
-      <c r="M11" t="s">
-        <v>616</v>
+      <c r="L11">
+        <v>1.118</v>
+      </c>
+      <c r="M11">
+        <v>96800</v>
       </c>
       <c r="N11" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="P11" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>663</v>
-      </c>
-      <c r="R11" t="s">
-        <v>673</v>
+        <v>621</v>
+      </c>
+      <c r="P11">
+        <v>1.272</v>
+      </c>
+      <c r="Q11">
+        <v>2.309</v>
+      </c>
+      <c r="R11">
+        <v>5.554</v>
       </c>
       <c r="T11">
         <v>30</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="W11" t="s">
-        <v>690</v>
-      </c>
-      <c r="X11" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>703</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>711</v>
+        <v>640</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -7512,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>716</v>
+        <v>657</v>
       </c>
       <c r="AD11">
         <v>188</v>
@@ -7543,44 +7342,32 @@
       <c r="K12" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="L12" t="s">
-        <v>602</v>
-      </c>
-      <c r="M12" t="s">
-        <v>617</v>
+      <c r="L12">
+        <v>1.224</v>
+      </c>
+      <c r="M12">
+        <v>53700</v>
       </c>
       <c r="N12" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="P12" t="s">
-        <v>655</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>664</v>
-      </c>
-      <c r="R12" t="s">
-        <v>674</v>
+        <v>622</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>132</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
       </c>
       <c r="T12">
         <v>30</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="W12" t="s">
-        <v>691</v>
-      </c>
-      <c r="X12" t="s">
-        <v>609</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>704</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>712</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -7605,44 +7392,32 @@
       <c r="K13" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="L13" t="s">
-        <v>603</v>
-      </c>
-      <c r="M13" t="s">
-        <v>618</v>
+      <c r="L13">
+        <v>216</v>
+      </c>
+      <c r="M13">
+        <v>88600</v>
       </c>
       <c r="N13" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="P13" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>665</v>
-      </c>
-      <c r="R13" t="s">
-        <v>675</v>
+        <v>623</v>
+      </c>
+      <c r="P13">
+        <v>270</v>
+      </c>
+      <c r="Q13">
+        <v>1.323</v>
+      </c>
+      <c r="R13">
+        <v>488</v>
       </c>
       <c r="T13">
         <v>50</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="W13" t="s">
-        <v>692</v>
-      </c>
-      <c r="X13" t="s">
-        <v>697</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>705</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>713</v>
+        <v>642</v>
       </c>
       <c r="AA13">
         <v>1</v>
@@ -7651,7 +7426,7 @@
         <v>10</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>717</v>
+        <v>658</v>
       </c>
       <c r="AD13">
         <v>236</v>
@@ -7676,14 +7451,14 @@
       <c r="K14" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="L14" t="s">
-        <v>604</v>
-      </c>
-      <c r="M14" t="s">
-        <v>619</v>
+      <c r="L14">
+        <v>338</v>
+      </c>
+      <c r="M14">
+        <v>54800</v>
       </c>
       <c r="N14" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -7705,32 +7480,32 @@
       <c r="K15" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="L15" t="s">
-        <v>605</v>
-      </c>
-      <c r="M15" t="s">
-        <v>620</v>
+      <c r="L15">
+        <v>536</v>
+      </c>
+      <c r="M15">
+        <v>42100</v>
       </c>
       <c r="N15" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="P15" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>666</v>
-      </c>
-      <c r="R15" t="s">
-        <v>676</v>
+        <v>624</v>
+      </c>
+      <c r="P15">
+        <v>1.153</v>
+      </c>
+      <c r="Q15">
+        <v>1.113</v>
+      </c>
+      <c r="R15">
+        <v>391</v>
       </c>
       <c r="T15">
         <v>30</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>718</v>
+        <v>659</v>
       </c>
       <c r="AD15">
         <v>57</v>
@@ -7758,47 +7533,47 @@
       <c r="K16" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="L16" t="s">
-        <v>606</v>
-      </c>
-      <c r="M16" t="s">
-        <v>621</v>
+      <c r="L16">
+        <v>165</v>
+      </c>
+      <c r="M16">
+        <v>49600</v>
       </c>
       <c r="N16" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="P16" t="s">
-        <v>658</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>667</v>
-      </c>
-      <c r="R16" t="s">
-        <v>677</v>
+        <v>625</v>
+      </c>
+      <c r="P16">
+        <v>260</v>
+      </c>
+      <c r="Q16">
+        <v>754</v>
+      </c>
+      <c r="R16">
+        <v>330</v>
       </c>
       <c r="T16">
         <v>100</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="W16" t="s">
-        <v>693</v>
-      </c>
-      <c r="X16" t="s">
-        <v>698</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>706</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>643</v>
+      </c>
+      <c r="W16">
+        <v>707</v>
+      </c>
+      <c r="X16">
+        <v>142</v>
+      </c>
+      <c r="Y16">
+        <v>547</v>
+      </c>
+      <c r="Z16">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7814,17 +7589,8 @@
       <c r="K17" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="L17" t="s">
-        <v>607</v>
-      </c>
-      <c r="M17" t="s">
-        <v>622</v>
-      </c>
-      <c r="N17" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7834,17 +7600,8 @@
       <c r="K18" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="L18" t="s">
-        <v>608</v>
-      </c>
-      <c r="M18" t="s">
-        <v>623</v>
-      </c>
-      <c r="N18" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7854,17 +7611,8 @@
       <c r="K19" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="L19" t="s">
-        <v>609</v>
-      </c>
-      <c r="M19" t="s">
-        <v>624</v>
-      </c>
-      <c r="N19" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7872,16 +7620,7 @@
         <v>559</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="P20" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>668</v>
-      </c>
-      <c r="R20" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="719">
   <si>
     <t>Contact Name</t>
   </si>
@@ -1802,25 +1802,55 @@
     <t>https://www.youtube.com/channel/Japan</t>
   </si>
   <si>
-    <t>2238</t>
-  </si>
-  <si>
-    <t>2028</t>
+    <t>2239</t>
+  </si>
+  <si>
+    <t>2031</t>
   </si>
   <si>
     <t>1844</t>
   </si>
   <si>
-    <t>3866</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>5.61M</t>
-  </si>
-  <si>
-    <t>2.44M</t>
+    <t>3869</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>3958</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>5.62M</t>
+  </si>
+  <si>
+    <t>2.46M</t>
   </si>
   <si>
     <t>1.78M</t>
@@ -1829,43 +1859,82 @@
     <t>1.46M</t>
   </si>
   <si>
-    <t>251K</t>
-  </si>
-  <si>
-    <t>3899243060</t>
-  </si>
-  <si>
-    <t>2548759255</t>
-  </si>
-  <si>
-    <t>1358716007</t>
-  </si>
-  <si>
-    <t>858396934</t>
-  </si>
-  <si>
-    <t>46085617</t>
-  </si>
-  <si>
-    <t>72,548,736</t>
-  </si>
-  <si>
-    <t>101,143,195</t>
-  </si>
-  <si>
-    <t>59,523,888</t>
-  </si>
-  <si>
-    <t>24,319,728</t>
-  </si>
-  <si>
-    <t>19,751,889</t>
-  </si>
-  <si>
-    <t>33,831,183</t>
-  </si>
-  <si>
-    <t>9,595,182</t>
+    <t>253K</t>
+  </si>
+  <si>
+    <t>143K</t>
+  </si>
+  <si>
+    <t>96.9K</t>
+  </si>
+  <si>
+    <t>53.9K</t>
+  </si>
+  <si>
+    <t>93K</t>
+  </si>
+  <si>
+    <t>55K</t>
+  </si>
+  <si>
+    <t>42.2K</t>
+  </si>
+  <si>
+    <t>50.8K</t>
+  </si>
+  <si>
+    <t>32.9K</t>
+  </si>
+  <si>
+    <t>101M</t>
+  </si>
+  <si>
+    <t>1.15K</t>
+  </si>
+  <si>
+    <t>3903113533</t>
+  </si>
+  <si>
+    <t>2552677239</t>
+  </si>
+  <si>
+    <t>1359421232</t>
+  </si>
+  <si>
+    <t>859283273</t>
+  </si>
+  <si>
+    <t>46542627</t>
+  </si>
+  <si>
+    <t>72626322</t>
+  </si>
+  <si>
+    <t>101237916</t>
+  </si>
+  <si>
+    <t>59753446</t>
+  </si>
+  <si>
+    <t>25555069</t>
+  </si>
+  <si>
+    <t>19657263</t>
+  </si>
+  <si>
+    <t>33873652</t>
+  </si>
+  <si>
+    <t>10271855</t>
+  </si>
+  <si>
+    <t>8866893</t>
+  </si>
+  <si>
+    <t>23474006016</t>
+  </si>
+  <si>
+    <t>330218</t>
   </si>
   <si>
     <t>https://www.instagram.com/teamawesmr/</t>
@@ -1898,7 +1967,7 @@
     <t>https://www.instagram.com/hazarblablabla/</t>
   </si>
   <si>
-    <t>111</t>
+    <t>114</t>
   </si>
   <si>
     <t>289</t>
@@ -1907,13 +1976,55 @@
     <t>85</t>
   </si>
   <si>
-    <t>42.2k</t>
+    <t>1,018</t>
+  </si>
+  <si>
+    <t>1,278</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>1,153</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>42.6k</t>
   </si>
   <si>
     <t>27.2k</t>
   </si>
   <si>
-    <t>1,246</t>
+    <t>1,249</t>
+  </si>
+  <si>
+    <t>1,066</t>
+  </si>
+  <si>
+    <t>2,332</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>1,323</t>
+  </si>
+  <si>
+    <t>1,114</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>154</t>
   </si>
   <si>
     <t>0</t>
@@ -1922,7 +2033,28 @@
     <t>38</t>
   </si>
   <si>
-    <t>2,324</t>
+    <t>2,325</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>5,780</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>https://twitter.com/teamAWESMR</t>
@@ -1949,22 +2081,43 @@
     <t>https://twitter.com/PlanettSerenity</t>
   </si>
   <si>
-    <t>1,058</t>
-  </si>
-  <si>
-    <t>1,966</t>
-  </si>
-  <si>
-    <t>962</t>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>706</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>725</t>
+    <t>727</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>141</t>
   </si>
   <si>
     <t>10</t>
@@ -1973,16 +2126,40 @@
     <t>12</t>
   </si>
   <si>
-    <t>1,527</t>
-  </si>
-  <si>
-    <t>2,049</t>
-  </si>
-  <si>
-    <t>4,136</t>
-  </si>
-  <si>
-    <t>1,129</t>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>4136</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>8328</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>1006</t>
   </si>
   <si>
     <t>https://www.facebook.com/pstoyreviews</t>
@@ -6951,40 +7128,40 @@
         <v>595</v>
       </c>
       <c r="M5" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="N5" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="P5" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="Q5" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="R5" t="s">
-        <v>633</v>
+        <v>670</v>
       </c>
       <c r="T5">
         <v>150000</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>636</v>
+        <v>680</v>
       </c>
       <c r="W5" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="X5" t="s">
-        <v>647</v>
+        <v>696</v>
       </c>
       <c r="Y5" t="s">
-        <v>650</v>
+        <v>701</v>
       </c>
       <c r="Z5" t="s">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -7022,10 +7199,10 @@
         <v>596</v>
       </c>
       <c r="M6" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="N6" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -7054,10 +7231,10 @@
         <v>597</v>
       </c>
       <c r="M7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="N7" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -7086,40 +7263,40 @@
         <v>598</v>
       </c>
       <c r="M8" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="N8" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="P8" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="Q8" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
       <c r="R8" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="T8">
         <v>600</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>637</v>
+        <v>681</v>
       </c>
       <c r="W8" t="s">
-        <v>645</v>
+        <v>689</v>
       </c>
       <c r="X8" t="s">
-        <v>648</v>
+        <v>609</v>
       </c>
       <c r="Y8" t="s">
-        <v>651</v>
+        <v>702</v>
       </c>
       <c r="Z8" t="s">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -7128,7 +7305,7 @@
         <v>10</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>656</v>
+        <v>715</v>
       </c>
       <c r="AD8">
         <v>5.962</v>
@@ -7160,40 +7337,40 @@
         <v>599</v>
       </c>
       <c r="M9" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="N9" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="P9" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="Q9" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="R9" t="s">
-        <v>635</v>
+        <v>672</v>
       </c>
       <c r="T9">
         <v>30</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>638</v>
+        <v>682</v>
       </c>
       <c r="W9" t="s">
-        <v>646</v>
+        <v>690</v>
       </c>
       <c r="X9" t="s">
-        <v>649</v>
+        <v>697</v>
       </c>
       <c r="Y9" t="s">
-        <v>652</v>
+        <v>703</v>
       </c>
       <c r="Z9" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -7221,29 +7398,32 @@
       <c r="K10" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="L10">
-        <v>1.623</v>
-      </c>
-      <c r="M10">
-        <v>142000</v>
+      <c r="L10" t="s">
+        <v>600</v>
+      </c>
+      <c r="M10" t="s">
+        <v>615</v>
       </c>
       <c r="N10" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="P10">
-        <v>1.018</v>
-      </c>
-      <c r="Q10">
-        <v>1.065</v>
-      </c>
-      <c r="R10">
-        <v>69</v>
+        <v>643</v>
+      </c>
+      <c r="P10" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>663</v>
+      </c>
+      <c r="R10" t="s">
+        <v>673</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>639</v>
+        <v>683</v>
+      </c>
+      <c r="W10" t="s">
+        <v>691</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -7277,32 +7457,44 @@
       <c r="K11" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="L11">
-        <v>1.118</v>
-      </c>
-      <c r="M11">
-        <v>96800</v>
+      <c r="L11" t="s">
+        <v>601</v>
+      </c>
+      <c r="M11" t="s">
+        <v>616</v>
       </c>
       <c r="N11" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="P11">
-        <v>1.272</v>
-      </c>
-      <c r="Q11">
-        <v>2.309</v>
-      </c>
-      <c r="R11">
-        <v>5.554</v>
+        <v>644</v>
+      </c>
+      <c r="P11" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>664</v>
+      </c>
+      <c r="R11" t="s">
+        <v>674</v>
       </c>
       <c r="T11">
         <v>30</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>640</v>
+        <v>684</v>
+      </c>
+      <c r="W11" t="s">
+        <v>692</v>
+      </c>
+      <c r="X11" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>704</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>711</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -7311,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>657</v>
+        <v>716</v>
       </c>
       <c r="AD11">
         <v>188</v>
@@ -7342,32 +7534,44 @@
       <c r="K12" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="L12">
-        <v>1.224</v>
-      </c>
-      <c r="M12">
-        <v>53700</v>
+      <c r="L12" t="s">
+        <v>602</v>
+      </c>
+      <c r="M12" t="s">
+        <v>617</v>
       </c>
       <c r="N12" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="P12">
-        <v>11</v>
-      </c>
-      <c r="Q12">
-        <v>132</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
+        <v>645</v>
+      </c>
+      <c r="P12" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>665</v>
+      </c>
+      <c r="R12" t="s">
+        <v>675</v>
       </c>
       <c r="T12">
         <v>30</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>641</v>
+        <v>685</v>
+      </c>
+      <c r="W12" t="s">
+        <v>693</v>
+      </c>
+      <c r="X12" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>705</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -7392,32 +7596,44 @@
       <c r="K13" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="L13">
-        <v>216</v>
-      </c>
-      <c r="M13">
-        <v>88600</v>
+      <c r="L13" t="s">
+        <v>603</v>
+      </c>
+      <c r="M13" t="s">
+        <v>618</v>
       </c>
       <c r="N13" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="P13">
-        <v>270</v>
-      </c>
-      <c r="Q13">
-        <v>1.323</v>
-      </c>
-      <c r="R13">
-        <v>488</v>
+        <v>646</v>
+      </c>
+      <c r="P13" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>666</v>
+      </c>
+      <c r="R13" t="s">
+        <v>676</v>
       </c>
       <c r="T13">
         <v>50</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>642</v>
+        <v>686</v>
+      </c>
+      <c r="W13" t="s">
+        <v>694</v>
+      </c>
+      <c r="X13" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>706</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>713</v>
       </c>
       <c r="AA13">
         <v>1</v>
@@ -7426,7 +7642,7 @@
         <v>10</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>658</v>
+        <v>717</v>
       </c>
       <c r="AD13">
         <v>236</v>
@@ -7451,14 +7667,14 @@
       <c r="K14" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="L14">
-        <v>338</v>
-      </c>
-      <c r="M14">
-        <v>54800</v>
+      <c r="L14" t="s">
+        <v>604</v>
+      </c>
+      <c r="M14" t="s">
+        <v>619</v>
       </c>
       <c r="N14" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -7480,32 +7696,32 @@
       <c r="K15" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="L15">
-        <v>536</v>
-      </c>
-      <c r="M15">
-        <v>42100</v>
+      <c r="L15" t="s">
+        <v>605</v>
+      </c>
+      <c r="M15" t="s">
+        <v>620</v>
       </c>
       <c r="N15" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="P15">
-        <v>1.153</v>
-      </c>
-      <c r="Q15">
-        <v>1.113</v>
-      </c>
-      <c r="R15">
-        <v>391</v>
+        <v>647</v>
+      </c>
+      <c r="P15" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>667</v>
+      </c>
+      <c r="R15" t="s">
+        <v>677</v>
       </c>
       <c r="T15">
         <v>30</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>659</v>
+        <v>718</v>
       </c>
       <c r="AD15">
         <v>57</v>
@@ -7533,47 +7749,47 @@
       <c r="K16" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="L16">
-        <v>165</v>
-      </c>
-      <c r="M16">
-        <v>49600</v>
+      <c r="L16" t="s">
+        <v>606</v>
+      </c>
+      <c r="M16" t="s">
+        <v>621</v>
       </c>
       <c r="N16" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="P16">
-        <v>260</v>
-      </c>
-      <c r="Q16">
-        <v>754</v>
-      </c>
-      <c r="R16">
-        <v>330</v>
+        <v>648</v>
+      </c>
+      <c r="P16" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>668</v>
+      </c>
+      <c r="R16" t="s">
+        <v>678</v>
       </c>
       <c r="T16">
         <v>100</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="W16">
+        <v>687</v>
+      </c>
+      <c r="W16" t="s">
+        <v>695</v>
+      </c>
+      <c r="X16" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y16" t="s">
         <v>707</v>
       </c>
-      <c r="X16">
-        <v>142</v>
-      </c>
-      <c r="Y16">
-        <v>547</v>
-      </c>
-      <c r="Z16">
-        <v>1.004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Z16" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7589,8 +7805,17 @@
       <c r="K17" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="L17" t="s">
+        <v>607</v>
+      </c>
+      <c r="M17" t="s">
+        <v>622</v>
+      </c>
+      <c r="N17" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7600,8 +7825,17 @@
       <c r="K18" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="L18" t="s">
+        <v>608</v>
+      </c>
+      <c r="M18" t="s">
+        <v>623</v>
+      </c>
+      <c r="N18" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7611,8 +7845,17 @@
       <c r="K19" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="L19" t="s">
+        <v>609</v>
+      </c>
+      <c r="M19" t="s">
+        <v>624</v>
+      </c>
+      <c r="N19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7620,7 +7863,16 @@
         <v>559</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>626</v>
+        <v>649</v>
+      </c>
+      <c r="P20" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>669</v>
+      </c>
+      <c r="R20" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="721">
   <si>
     <t>Contact Name</t>
   </si>
@@ -1802,7 +1802,7 @@
     <t>https://www.youtube.com/channel/Japan</t>
   </si>
   <si>
-    <t>2239</t>
+    <t>2241</t>
   </si>
   <si>
     <t>2031</t>
@@ -1811,7 +1811,7 @@
     <t>1844</t>
   </si>
   <si>
-    <t>3869</t>
+    <t>3870</t>
   </si>
   <si>
     <t>101</t>
@@ -1820,16 +1820,16 @@
     <t>1623</t>
   </si>
   <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1228</t>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1229</t>
   </si>
   <si>
     <t>217</t>
   </si>
   <si>
-    <t>335</t>
+    <t>330</t>
   </si>
   <si>
     <t>537</t>
@@ -1868,10 +1868,10 @@
     <t>96.9K</t>
   </si>
   <si>
-    <t>53.9K</t>
-  </si>
-  <si>
-    <t>93K</t>
+    <t>54K</t>
+  </si>
+  <si>
+    <t>93.5K</t>
   </si>
   <si>
     <t>55K</t>
@@ -1880,10 +1880,10 @@
     <t>42.2K</t>
   </si>
   <si>
-    <t>50.8K</t>
-  </si>
-  <si>
-    <t>32.9K</t>
+    <t>51K</t>
+  </si>
+  <si>
+    <t>33.1K</t>
   </si>
   <si>
     <t>101M</t>
@@ -1892,49 +1892,49 @@
     <t>1.15K</t>
   </si>
   <si>
-    <t>3903113533</t>
-  </si>
-  <si>
-    <t>2552677239</t>
-  </si>
-  <si>
-    <t>1359421232</t>
-  </si>
-  <si>
-    <t>859283273</t>
-  </si>
-  <si>
-    <t>46542627</t>
-  </si>
-  <si>
-    <t>72626322</t>
-  </si>
-  <si>
-    <t>101237916</t>
-  </si>
-  <si>
-    <t>59753446</t>
-  </si>
-  <si>
-    <t>25555069</t>
-  </si>
-  <si>
-    <t>19657263</t>
-  </si>
-  <si>
-    <t>33873652</t>
-  </si>
-  <si>
-    <t>10271855</t>
-  </si>
-  <si>
-    <t>8866893</t>
-  </si>
-  <si>
-    <t>23474006016</t>
-  </si>
-  <si>
-    <t>330218</t>
+    <t>3904142596</t>
+  </si>
+  <si>
+    <t>2553803768</t>
+  </si>
+  <si>
+    <t>1359630995</t>
+  </si>
+  <si>
+    <t>859514058</t>
+  </si>
+  <si>
+    <t>46651885</t>
+  </si>
+  <si>
+    <t>72635441</t>
+  </si>
+  <si>
+    <t>101249439</t>
+  </si>
+  <si>
+    <t>59781475</t>
+  </si>
+  <si>
+    <t>25705893</t>
+  </si>
+  <si>
+    <t>19663349</t>
+  </si>
+  <si>
+    <t>33879805</t>
+  </si>
+  <si>
+    <t>10374071</t>
+  </si>
+  <si>
+    <t>8922883</t>
+  </si>
+  <si>
+    <t>23486563004</t>
+  </si>
+  <si>
+    <t>330219</t>
   </si>
   <si>
     <t>https://www.instagram.com/teamawesmr/</t>
@@ -1979,7 +1979,7 @@
     <t>1,018</t>
   </si>
   <si>
-    <t>1,278</t>
+    <t>1,279</t>
   </si>
   <si>
     <t>11</t>
@@ -2003,13 +2003,13 @@
     <t>27.2k</t>
   </si>
   <si>
-    <t>1,249</t>
+    <t>1,254</t>
   </si>
   <si>
     <t>1,066</t>
   </si>
   <si>
-    <t>2,332</t>
+    <t>2,334</t>
   </si>
   <si>
     <t>134</t>
@@ -2021,10 +2021,10 @@
     <t>1,114</t>
   </si>
   <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>154</t>
+    <t>765</t>
+  </si>
+  <si>
+    <t>153</t>
   </si>
   <si>
     <t>0</t>
@@ -2039,7 +2039,7 @@
     <t>69</t>
   </si>
   <si>
-    <t>5,780</t>
+    <t>5,777</t>
   </si>
   <si>
     <t>2</t>
@@ -2054,7 +2054,7 @@
     <t>333</t>
   </si>
   <si>
-    <t>200</t>
+    <t>161</t>
   </si>
   <si>
     <t>https://twitter.com/teamAWESMR</t>
@@ -2102,7 +2102,7 @@
     <t>796</t>
   </si>
   <si>
-    <t>706</t>
+    <t>708</t>
   </si>
   <si>
     <t>57</t>
@@ -2111,7 +2111,7 @@
     <t>727</t>
   </si>
   <si>
-    <t>1403</t>
+    <t>1402</t>
   </si>
   <si>
     <t>259</t>
@@ -2129,6 +2129,9 @@
     <t>1530</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
@@ -2148,6 +2151,9 @@
   </si>
   <si>
     <t>1130</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>8328</t>
@@ -7161,7 +7167,7 @@
         <v>701</v>
       </c>
       <c r="Z5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -7296,7 +7302,7 @@
         <v>702</v>
       </c>
       <c r="Z8" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -7305,7 +7311,7 @@
         <v>10</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AD8">
         <v>5.962</v>
@@ -7370,7 +7376,7 @@
         <v>703</v>
       </c>
       <c r="Z9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -7425,6 +7431,12 @@
       <c r="W10" t="s">
         <v>691</v>
       </c>
+      <c r="Y10" t="s">
+        <v>704</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>712</v>
+      </c>
       <c r="AA10">
         <v>0</v>
       </c>
@@ -7491,10 +7503,10 @@
         <v>698</v>
       </c>
       <c r="Y11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Z11" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -7503,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AD11">
         <v>188</v>
@@ -7568,10 +7580,10 @@
         <v>609</v>
       </c>
       <c r="Y12" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z12" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -7630,10 +7642,10 @@
         <v>699</v>
       </c>
       <c r="Y13" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Z13" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AA13">
         <v>1</v>
@@ -7642,7 +7654,7 @@
         <v>10</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AD13">
         <v>236</v>
@@ -7721,7 +7733,7 @@
         <v>30</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AD15">
         <v>57</v>
@@ -7783,10 +7795,10 @@
         <v>700</v>
       </c>
       <c r="Y16" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Z16" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="17" spans="1:18">

--- a/output.xlsx
+++ b/output.xlsx
@@ -1802,16 +1802,16 @@
     <t>https://www.youtube.com/channel/Japan</t>
   </si>
   <si>
-    <t>2241</t>
-  </si>
-  <si>
-    <t>2031</t>
+    <t>2242</t>
+  </si>
+  <si>
+    <t>2032</t>
   </si>
   <si>
     <t>1844</t>
   </si>
   <si>
-    <t>3870</t>
+    <t>3871</t>
   </si>
   <si>
     <t>101</t>
@@ -1820,7 +1820,7 @@
     <t>1623</t>
   </si>
   <si>
-    <t>1111</t>
+    <t>1091</t>
   </si>
   <si>
     <t>1229</t>
@@ -1832,13 +1832,13 @@
     <t>330</t>
   </si>
   <si>
-    <t>537</t>
+    <t>538</t>
   </si>
   <si>
     <t>166</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>3958</t>
@@ -1850,7 +1850,7 @@
     <t>5.62M</t>
   </si>
   <si>
-    <t>2.46M</t>
+    <t>2.47M</t>
   </si>
   <si>
     <t>1.78M</t>
@@ -1859,7 +1859,7 @@
     <t>1.46M</t>
   </si>
   <si>
-    <t>253K</t>
+    <t>254K</t>
   </si>
   <si>
     <t>143K</t>
@@ -1871,7 +1871,7 @@
     <t>54K</t>
   </si>
   <si>
-    <t>93.5K</t>
+    <t>94.2K</t>
   </si>
   <si>
     <t>55K</t>
@@ -1880,10 +1880,10 @@
     <t>42.2K</t>
   </si>
   <si>
-    <t>51K</t>
-  </si>
-  <si>
-    <t>33.1K</t>
+    <t>51.3K</t>
+  </si>
+  <si>
+    <t>33.2K</t>
   </si>
   <si>
     <t>101M</t>
@@ -1892,49 +1892,49 @@
     <t>1.15K</t>
   </si>
   <si>
-    <t>3904142596</t>
-  </si>
-  <si>
-    <t>2553803768</t>
-  </si>
-  <si>
-    <t>1359630995</t>
-  </si>
-  <si>
-    <t>859514058</t>
-  </si>
-  <si>
-    <t>46651885</t>
-  </si>
-  <si>
-    <t>72635441</t>
-  </si>
-  <si>
-    <t>101249439</t>
-  </si>
-  <si>
-    <t>59781475</t>
-  </si>
-  <si>
-    <t>25705893</t>
-  </si>
-  <si>
-    <t>19663349</t>
-  </si>
-  <si>
-    <t>33879805</t>
-  </si>
-  <si>
-    <t>10374071</t>
-  </si>
-  <si>
-    <t>8922883</t>
-  </si>
-  <si>
-    <t>23486563004</t>
-  </si>
-  <si>
-    <t>330219</t>
+    <t>3905158114</t>
+  </si>
+  <si>
+    <t>2554596251</t>
+  </si>
+  <si>
+    <t>1359840147</t>
+  </si>
+  <si>
+    <t>859757527</t>
+  </si>
+  <si>
+    <t>46756400</t>
+  </si>
+  <si>
+    <t>72643506</t>
+  </si>
+  <si>
+    <t>101262763</t>
+  </si>
+  <si>
+    <t>59807827</t>
+  </si>
+  <si>
+    <t>25914850</t>
+  </si>
+  <si>
+    <t>19574471</t>
+  </si>
+  <si>
+    <t>33887803</t>
+  </si>
+  <si>
+    <t>10483531</t>
+  </si>
+  <si>
+    <t>8974378</t>
+  </si>
+  <si>
+    <t>23496457944</t>
+  </si>
+  <si>
+    <t>330221</t>
   </si>
   <si>
     <t>https://www.instagram.com/teamawesmr/</t>
@@ -1967,7 +1967,7 @@
     <t>https://www.instagram.com/hazarblablabla/</t>
   </si>
   <si>
-    <t>114</t>
+    <t>115</t>
   </si>
   <si>
     <t>289</t>
@@ -1979,28 +1979,28 @@
     <t>1,018</t>
   </si>
   <si>
-    <t>1,279</t>
+    <t>1,280</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>275</t>
+    <t>276</t>
   </si>
   <si>
     <t>1,153</t>
   </si>
   <si>
-    <t>265</t>
+    <t>266</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>42.6k</t>
-  </si>
-  <si>
-    <t>27.2k</t>
+    <t>42.7k</t>
+  </si>
+  <si>
+    <t>27.3k</t>
   </si>
   <si>
     <t>1,254</t>
@@ -2009,16 +2009,16 @@
     <t>1,066</t>
   </si>
   <si>
-    <t>2,334</t>
+    <t>2,336</t>
   </si>
   <si>
     <t>134</t>
   </si>
   <si>
-    <t>1,323</t>
-  </si>
-  <si>
-    <t>1,114</t>
+    <t>1,325</t>
+  </si>
+  <si>
+    <t>1,112</t>
   </si>
   <si>
     <t>765</t>
@@ -2033,13 +2033,13 @@
     <t>38</t>
   </si>
   <si>
-    <t>2,325</t>
+    <t>2,324</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>5,777</t>
+    <t>5,776</t>
   </si>
   <si>
     <t>2</t>
@@ -2087,7 +2087,7 @@
     <t>1963</t>
   </si>
   <si>
-    <t>960</t>
+    <t>961</t>
   </si>
   <si>
     <t>5</t>
@@ -2099,7 +2099,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>796</t>
+    <t>794</t>
   </si>
   <si>
     <t>708</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -2054,7 +2054,7 @@
     <t>333</t>
   </si>
   <si>
-    <t>161</t>
+    <t>162</t>
   </si>
   <si>
     <t>https://twitter.com/teamAWESMR</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1814,7 +1814,7 @@
     <t>3871</t>
   </si>
   <si>
-    <t>101</t>
+    <t>102</t>
   </si>
   <si>
     <t>1623</t>
@@ -1841,7 +1841,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>3958</t>
+    <t>3959</t>
   </si>
   <si>
     <t>16</t>
@@ -1892,22 +1892,22 @@
     <t>1.15K</t>
   </si>
   <si>
-    <t>3905158114</t>
+    <t>3905221144</t>
   </si>
   <si>
     <t>2554596251</t>
   </si>
   <si>
-    <t>1359840147</t>
-  </si>
-  <si>
-    <t>859757527</t>
-  </si>
-  <si>
-    <t>46756400</t>
-  </si>
-  <si>
-    <t>72643506</t>
+    <t>1359866729</t>
+  </si>
+  <si>
+    <t>859772858</t>
+  </si>
+  <si>
+    <t>46813319</t>
+  </si>
+  <si>
+    <t>72644659</t>
   </si>
   <si>
     <t>101262763</t>
@@ -1919,7 +1919,7 @@
     <t>25914850</t>
   </si>
   <si>
-    <t>19574471</t>
+    <t>19575222</t>
   </si>
   <si>
     <t>33887803</t>
@@ -1931,7 +1931,7 @@
     <t>8974378</t>
   </si>
   <si>
-    <t>23496457944</t>
+    <t>23496930482</t>
   </si>
   <si>
     <t>330221</t>
@@ -2099,7 +2099,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>794</t>
+    <t>795</t>
   </si>
   <si>
     <t>708</t>
@@ -2126,7 +2126,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>1530</t>
+    <t>1531</t>
   </si>
   <si>
     <t>9</t>
@@ -2159,7 +2159,7 @@
     <t>8328</t>
   </si>
   <si>
-    <t>775</t>
+    <t>776</t>
   </si>
   <si>
     <t>282</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1242">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -3138,43 +3138,115 @@
     <t>https://www.youtube.com/channel/UCK5Q72Uyo73uRPk8PmM2A3w/videos</t>
   </si>
   <si>
-    <t>5.62M</t>
-  </si>
-  <si>
-    <t>2.47M</t>
+    <t>2245</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>3874</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>5.63M</t>
+  </si>
+  <si>
+    <t>2.48M</t>
   </si>
   <si>
     <t>1.78M</t>
   </si>
   <si>
-    <t>1.46M</t>
-  </si>
-  <si>
-    <t>254K</t>
+    <t>1.47M</t>
+  </si>
+  <si>
+    <t>257K</t>
   </si>
   <si>
     <t>143K</t>
   </si>
   <si>
-    <t>96.9K</t>
+    <t>97K</t>
   </si>
   <si>
     <t>54K</t>
   </si>
   <si>
-    <t>94.2K</t>
-  </si>
-  <si>
-    <t>55K</t>
+    <t>95.3K</t>
+  </si>
+  <si>
+    <t>55.1K</t>
   </si>
   <si>
     <t>42.2K</t>
   </si>
   <si>
-    <t>51.3K</t>
-  </si>
-  <si>
-    <t>33.2K</t>
+    <t>52.5K</t>
+  </si>
+  <si>
+    <t>33.9K</t>
   </si>
   <si>
     <t>11.8K</t>
@@ -3186,30 +3258,102 @@
     <t>13.7M</t>
   </si>
   <si>
-    <t>685K</t>
-  </si>
-  <si>
-    <t>6.71K</t>
-  </si>
-  <si>
-    <t>5.4M</t>
-  </si>
-  <si>
-    <t>6M</t>
-  </si>
-  <si>
-    <t>34.3K</t>
-  </si>
-  <si>
-    <t>88K</t>
-  </si>
-  <si>
-    <t>156K</t>
+    <t>700K</t>
+  </si>
+  <si>
+    <t>6.73K</t>
+  </si>
+  <si>
+    <t>5.49M</t>
+  </si>
+  <si>
+    <t>6.06M</t>
+  </si>
+  <si>
+    <t>34.4K</t>
+  </si>
+  <si>
+    <t>88.4K</t>
+  </si>
+  <si>
+    <t>157K</t>
   </si>
   <si>
     <t>11.9M</t>
   </si>
   <si>
+    <t>3910394736</t>
+  </si>
+  <si>
+    <t>2557344806</t>
+  </si>
+  <si>
+    <t>1360933213</t>
+  </si>
+  <si>
+    <t>860893093</t>
+  </si>
+  <si>
+    <t>47546251</t>
+  </si>
+  <si>
+    <t>72689216</t>
+  </si>
+  <si>
+    <t>101341092</t>
+  </si>
+  <si>
+    <t>59892859</t>
+  </si>
+  <si>
+    <t>26283414</t>
+  </si>
+  <si>
+    <t>18778856</t>
+  </si>
+  <si>
+    <t>33910814</t>
+  </si>
+  <si>
+    <t>10864445</t>
+  </si>
+  <si>
+    <t>9172398</t>
+  </si>
+  <si>
+    <t>513612</t>
+  </si>
+  <si>
+    <t>9794370</t>
+  </si>
+  <si>
+    <t>5577328217</t>
+  </si>
+  <si>
+    <t>583782003</t>
+  </si>
+  <si>
+    <t>1739119</t>
+  </si>
+  <si>
+    <t>4018764572</t>
+  </si>
+  <si>
+    <t>4320220142</t>
+  </si>
+  <si>
+    <t>2706343</t>
+  </si>
+  <si>
+    <t>6545713</t>
+  </si>
+  <si>
+    <t>37943909</t>
+  </si>
+  <si>
+    <t>5240331696</t>
+  </si>
+  <si>
     <t>https://www.instagram.com/teamawesmr/</t>
   </si>
   <si>
@@ -3252,19 +3396,19 @@
     <t>https://www.instagram.com/techsith/</t>
   </si>
   <si>
-    <t>115</t>
+    <t>118</t>
   </si>
   <si>
     <t>289</t>
   </si>
   <si>
-    <t>85</t>
+    <t>86</t>
   </si>
   <si>
     <t>1,018</t>
   </si>
   <si>
-    <t>1,280</t>
+    <t>1,285</t>
   </si>
   <si>
     <t>11</t>
@@ -3285,94 +3429,94 @@
     <t>0</t>
   </si>
   <si>
-    <t>453</t>
+    <t>454</t>
   </si>
   <si>
     <t>387</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>43.5k</t>
+  </si>
+  <si>
+    <t>27.3k</t>
+  </si>
+  <si>
+    <t>1,256</t>
+  </si>
+  <si>
+    <t>1,066</t>
+  </si>
+  <si>
+    <t>2,338</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>1,326</t>
+  </si>
+  <si>
+    <t>1,113</t>
+  </si>
+  <si>
+    <t>766</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>32.8k</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>4,763</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2,332</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>42.7k</t>
-  </si>
-  <si>
-    <t>27.3k</t>
-  </si>
-  <si>
-    <t>1,254</t>
-  </si>
-  <si>
-    <t>1,066</t>
-  </si>
-  <si>
-    <t>2,336</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>1,325</t>
-  </si>
-  <si>
-    <t>1,112</t>
-  </si>
-  <si>
-    <t>765</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>32.9k</t>
-  </si>
-  <si>
-    <t>30k</t>
-  </si>
-  <si>
-    <t>4,768</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2,324</t>
-  </si>
-  <si>
-    <t>5,776</t>
+    <t>5,782</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>485</t>
-  </si>
-  <si>
     <t>391</t>
   </si>
   <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>1,217</t>
-  </si>
-  <si>
-    <t>4,315</t>
-  </si>
-  <si>
-    <t>64</t>
+    <t>334</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>1,227</t>
+  </si>
+  <si>
+    <t>4,310</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
   <si>
     <t>5</t>
@@ -3418,6 +3562,156 @@
   </si>
   <si>
     <t>https://twitter.com/techsith1</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>3130</t>
+  </si>
+  <si>
+    <t>19460</t>
+  </si>
+  <si>
+    <t>16318</t>
+  </si>
+  <si>
+    <t>2151</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1538</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>2141</t>
+  </si>
+  <si>
+    <t>13557</t>
+  </si>
+  <si>
+    <t>9835</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>4136</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>8328</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>5188</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>4945</t>
+  </si>
+  <si>
+    <t>3042</t>
+  </si>
+  <si>
+    <t>434</t>
   </si>
   <si>
     <t>https://www.facebook.com/pstoyreviews</t>
@@ -11018,44 +11312,44 @@
       <c r="M5" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="N5">
-        <v>2242</v>
+      <c r="N5" t="s">
+        <v>1038</v>
       </c>
       <c r="O5" t="s">
-        <v>1038</v>
-      </c>
-      <c r="P5">
-        <v>3905221144</v>
+        <v>1062</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1086</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>1062</v>
+        <v>1110</v>
       </c>
       <c r="R5" t="s">
-        <v>1076</v>
+        <v>1124</v>
       </c>
       <c r="S5" t="s">
-        <v>1091</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="s">
-        <v>1086</v>
+        <v>1134</v>
       </c>
       <c r="V5">
         <v>150000</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="Y5">
-        <v>1058</v>
-      </c>
-      <c r="Z5">
-        <v>57</v>
-      </c>
-      <c r="AA5">
-        <v>10</v>
-      </c>
-      <c r="AB5">
-        <v>2049</v>
+        <v>1166</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1216</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -11092,14 +11386,14 @@
       <c r="M6" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="N6">
-        <v>2032</v>
+      <c r="N6" t="s">
+        <v>1039</v>
       </c>
       <c r="O6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="P6">
-        <v>2554596251</v>
+        <v>1063</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -11124,14 +11418,14 @@
       <c r="M7" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="N7">
-        <v>1844</v>
+      <c r="N7" t="s">
+        <v>1040</v>
       </c>
       <c r="O7" t="s">
-        <v>1040</v>
-      </c>
-      <c r="P7">
-        <v>1359840147</v>
+        <v>1064</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -11156,44 +11450,44 @@
       <c r="M8" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="N8">
-        <v>3871</v>
+      <c r="N8" t="s">
+        <v>1041</v>
       </c>
       <c r="O8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="P8">
-        <v>859757527</v>
+        <v>1065</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1089</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1063</v>
+        <v>1111</v>
       </c>
       <c r="R8" t="s">
-        <v>1077</v>
+        <v>1125</v>
       </c>
       <c r="S8" t="s">
-        <v>1092</v>
+        <v>1140</v>
       </c>
       <c r="T8" t="s">
-        <v>1106</v>
+        <v>1154</v>
       </c>
       <c r="V8">
         <v>600</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="Y8">
-        <v>1964</v>
-      </c>
-      <c r="Z8">
-        <v>16</v>
-      </c>
-      <c r="AA8">
-        <v>12</v>
-      </c>
-      <c r="AB8">
-        <v>4136</v>
+        <v>1167</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1217</v>
       </c>
       <c r="AC8">
         <v>1</v>
@@ -11202,7 +11496,7 @@
         <v>10</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>1132</v>
+        <v>1230</v>
       </c>
       <c r="AF8">
         <v>5962</v>
@@ -11233,44 +11527,44 @@
       <c r="M9" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="N9">
-        <v>101</v>
+      <c r="N9" t="s">
+        <v>1042</v>
       </c>
       <c r="O9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="P9">
-        <v>46756400</v>
+        <v>1066</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1090</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>1064</v>
+        <v>1112</v>
       </c>
       <c r="R9" t="s">
-        <v>1078</v>
+        <v>1126</v>
       </c>
       <c r="S9" t="s">
-        <v>1093</v>
+        <v>1141</v>
       </c>
       <c r="T9" t="s">
-        <v>1107</v>
+        <v>1155</v>
       </c>
       <c r="V9">
         <v>30</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="Y9">
-        <v>965</v>
-      </c>
-      <c r="Z9">
-        <v>725</v>
-      </c>
-      <c r="AA9">
-        <v>1530</v>
-      </c>
-      <c r="AB9">
-        <v>1130</v>
+        <v>1168</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -11301,41 +11595,41 @@
       <c r="M10" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="N10">
-        <v>1623</v>
+      <c r="N10" t="s">
+        <v>1043</v>
       </c>
       <c r="O10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="P10">
-        <v>72643506</v>
+        <v>1067</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1091</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>1065</v>
+        <v>1113</v>
       </c>
       <c r="R10" t="s">
-        <v>1079</v>
+        <v>1127</v>
       </c>
       <c r="S10" t="s">
-        <v>1094</v>
+        <v>1142</v>
       </c>
       <c r="T10" t="s">
-        <v>1089</v>
+        <v>1156</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="Y10">
-        <v>10400</v>
+        <v>1169</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1165</v>
       </c>
       <c r="Z10">
         <v>84</v>
       </c>
-      <c r="AA10">
-        <v>9</v>
-      </c>
-      <c r="AB10">
-        <v>1102</v>
+      <c r="AA10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>1219</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -11372,44 +11666,44 @@
       <c r="M11" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="N11">
-        <v>1091</v>
+      <c r="N11" t="s">
+        <v>1044</v>
       </c>
       <c r="O11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="P11">
-        <v>101262763</v>
+        <v>1068</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1092</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>1066</v>
+        <v>1114</v>
       </c>
       <c r="R11" t="s">
-        <v>1080</v>
+        <v>1128</v>
       </c>
       <c r="S11" t="s">
-        <v>1095</v>
+        <v>1143</v>
       </c>
       <c r="T11" t="s">
-        <v>1108</v>
+        <v>1157</v>
       </c>
       <c r="V11">
         <v>30</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="Y11">
-        <v>658</v>
-      </c>
-      <c r="Z11">
-        <v>1402</v>
-      </c>
-      <c r="AA11">
-        <v>33</v>
-      </c>
-      <c r="AB11">
-        <v>8328</v>
+        <v>1170</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>1220</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -11418,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>1133</v>
+        <v>1231</v>
       </c>
       <c r="AF11">
         <v>188</v>
@@ -11452,44 +11746,44 @@
       <c r="M12" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="N12">
-        <v>1229</v>
+      <c r="N12" t="s">
+        <v>1045</v>
       </c>
       <c r="O12" t="s">
-        <v>1045</v>
-      </c>
-      <c r="P12">
-        <v>59807827</v>
+        <v>1069</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1093</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>1067</v>
+        <v>1115</v>
       </c>
       <c r="R12" t="s">
-        <v>1081</v>
+        <v>1129</v>
       </c>
       <c r="S12" t="s">
-        <v>1096</v>
+        <v>1144</v>
       </c>
       <c r="T12" t="s">
-        <v>1109</v>
+        <v>1158</v>
       </c>
       <c r="V12">
         <v>30</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="Y12">
-        <v>44</v>
-      </c>
-      <c r="Z12">
-        <v>16</v>
-      </c>
-      <c r="AA12">
-        <v>137</v>
-      </c>
-      <c r="AB12">
-        <v>775</v>
+        <v>1171</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -11517,44 +11811,44 @@
       <c r="M13" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="N13">
-        <v>217</v>
+      <c r="N13" t="s">
+        <v>1046</v>
       </c>
       <c r="O13" t="s">
-        <v>1046</v>
-      </c>
-      <c r="P13">
-        <v>25914850</v>
+        <v>1070</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1094</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>1068</v>
+        <v>1116</v>
       </c>
       <c r="R13" t="s">
-        <v>1082</v>
+        <v>1130</v>
       </c>
       <c r="S13" t="s">
-        <v>1097</v>
+        <v>1145</v>
       </c>
       <c r="T13" t="s">
-        <v>1110</v>
+        <v>1061</v>
       </c>
       <c r="V13">
         <v>50</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="Y13">
-        <v>806</v>
-      </c>
-      <c r="Z13">
-        <v>259</v>
-      </c>
-      <c r="AA13">
-        <v>467</v>
-      </c>
-      <c r="AB13">
-        <v>282</v>
+        <v>1172</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1222</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -11563,7 +11857,7 @@
         <v>10</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>1134</v>
+        <v>1232</v>
       </c>
       <c r="AF13">
         <v>236</v>
@@ -11594,14 +11888,14 @@
       <c r="M14" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="N14">
-        <v>330</v>
+      <c r="N14" t="s">
+        <v>1047</v>
       </c>
       <c r="O14" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P14">
-        <v>19574471</v>
+        <v>1071</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -11629,32 +11923,32 @@
       <c r="M15" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="N15">
-        <v>538</v>
+      <c r="N15" t="s">
+        <v>1048</v>
       </c>
       <c r="O15" t="s">
-        <v>1048</v>
-      </c>
-      <c r="P15">
-        <v>33887803</v>
+        <v>1072</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1096</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>1069</v>
+        <v>1117</v>
       </c>
       <c r="R15" t="s">
-        <v>1083</v>
+        <v>1131</v>
       </c>
       <c r="S15" t="s">
-        <v>1098</v>
+        <v>1146</v>
       </c>
       <c r="T15" t="s">
-        <v>1111</v>
+        <v>1159</v>
       </c>
       <c r="V15">
         <v>30</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>1135</v>
+        <v>1233</v>
       </c>
       <c r="AF15">
         <v>57</v>
@@ -11688,44 +11982,44 @@
       <c r="M16" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="N16">
-        <v>166</v>
+      <c r="N16" t="s">
+        <v>1049</v>
       </c>
       <c r="O16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="P16">
-        <v>10483531</v>
+        <v>1073</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1097</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>1070</v>
+        <v>1118</v>
       </c>
       <c r="R16" t="s">
-        <v>1084</v>
+        <v>1132</v>
       </c>
       <c r="S16" t="s">
-        <v>1099</v>
+        <v>1147</v>
       </c>
       <c r="T16" t="s">
-        <v>1112</v>
+        <v>1160</v>
       </c>
       <c r="V16">
         <v>100</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="Y16">
-        <v>707</v>
-      </c>
-      <c r="Z16">
-        <v>142</v>
-      </c>
-      <c r="AA16">
-        <v>548</v>
-      </c>
-      <c r="AB16">
-        <v>1006</v>
+        <v>1173</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -11753,38 +12047,41 @@
       <c r="M17" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="N17">
-        <v>24</v>
+      <c r="N17" t="s">
+        <v>1050</v>
       </c>
       <c r="O17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="P17">
-        <v>8974378</v>
+        <v>1074</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1098</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>1071</v>
+        <v>1119</v>
       </c>
       <c r="R17" t="s">
-        <v>1085</v>
+        <v>1133</v>
       </c>
       <c r="S17" t="s">
-        <v>1100</v>
+        <v>1148</v>
       </c>
       <c r="T17" t="s">
-        <v>1113</v>
+        <v>1161</v>
       </c>
       <c r="V17">
         <v>30</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>1126</v>
+        <v>1174</v>
       </c>
       <c r="Y17">
         <v>2</v>
       </c>
-      <c r="Z17">
-        <v>8</v>
+      <c r="Z17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -11818,47 +12115,47 @@
       <c r="M18" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="N18">
-        <v>125</v>
+      <c r="N18" t="s">
+        <v>1051</v>
       </c>
       <c r="O18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P18">
-        <v>511507</v>
+        <v>1075</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1099</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>1027</v>
       </c>
       <c r="R18" t="s">
-        <v>1086</v>
+        <v>1134</v>
       </c>
       <c r="S18" t="s">
-        <v>1101</v>
+        <v>1149</v>
       </c>
       <c r="T18" t="s">
-        <v>1086</v>
+        <v>1134</v>
       </c>
       <c r="V18">
         <v>600</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="Y18">
-        <v>3127</v>
-      </c>
-      <c r="Z18">
-        <v>732</v>
-      </c>
-      <c r="AA18">
-        <v>2141</v>
-      </c>
-      <c r="AB18">
-        <v>5185</v>
+        <v>1175</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>1225</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>1136</v>
+        <v>1234</v>
       </c>
       <c r="AF18" s="3">
         <v>43467</v>
@@ -11892,44 +12189,44 @@
       <c r="M19" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="N19">
-        <v>68</v>
+      <c r="N19" t="s">
+        <v>1052</v>
       </c>
       <c r="O19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="P19">
-        <v>9777119</v>
+        <v>1076</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1100</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>1072</v>
+        <v>1120</v>
       </c>
       <c r="R19" t="s">
-        <v>1087</v>
+        <v>1135</v>
       </c>
       <c r="S19" t="s">
-        <v>1102</v>
+        <v>1150</v>
       </c>
       <c r="T19" t="s">
-        <v>1114</v>
+        <v>1162</v>
       </c>
       <c r="V19">
         <v>2000</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="Y19">
-        <v>19300</v>
-      </c>
-      <c r="Z19">
-        <v>776</v>
-      </c>
-      <c r="AA19">
-        <v>13510</v>
-      </c>
-      <c r="AB19">
-        <v>1945</v>
+        <v>1176</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -11963,29 +12260,29 @@
       <c r="M20" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="N20">
-        <v>2495</v>
+      <c r="N20" t="s">
+        <v>1053</v>
       </c>
       <c r="O20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P20">
-        <v>5566378377</v>
+        <v>1077</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1101</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>1073</v>
+        <v>1121</v>
       </c>
       <c r="R20" t="s">
-        <v>1088</v>
+        <v>1136</v>
       </c>
       <c r="S20" t="s">
-        <v>1103</v>
+        <v>1151</v>
       </c>
       <c r="T20" t="s">
-        <v>1115</v>
+        <v>1163</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>1137</v>
+        <v>1235</v>
       </c>
       <c r="AF20">
         <v>1614859</v>
@@ -12022,29 +12319,29 @@
       <c r="M21" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="N21">
-        <v>450</v>
+      <c r="N21" t="s">
+        <v>1054</v>
       </c>
       <c r="O21" t="s">
-        <v>1054</v>
-      </c>
-      <c r="P21">
-        <v>575683054</v>
+        <v>1078</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1102</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>1074</v>
+        <v>1122</v>
       </c>
       <c r="R21" t="s">
-        <v>1089</v>
+        <v>1137</v>
       </c>
       <c r="S21" t="s">
-        <v>1104</v>
+        <v>1152</v>
       </c>
       <c r="T21" t="s">
-        <v>1116</v>
+        <v>1164</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>1138</v>
+        <v>1236</v>
       </c>
       <c r="AF21">
         <v>12664</v>
@@ -12075,14 +12372,14 @@
       <c r="M22" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="N22">
-        <v>20</v>
+      <c r="N22" t="s">
+        <v>1055</v>
       </c>
       <c r="O22" t="s">
-        <v>1055</v>
-      </c>
-      <c r="P22">
-        <v>1733344</v>
+        <v>1079</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -12113,26 +12410,32 @@
       <c r="M23" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="N23">
-        <v>160</v>
+      <c r="N23" t="s">
+        <v>1056</v>
       </c>
       <c r="O23" t="s">
-        <v>1056</v>
-      </c>
-      <c r="P23">
-        <v>3976901103</v>
+        <v>1080</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1104</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AA23">
-        <v>9835</v>
-      </c>
-      <c r="AB23">
-        <v>4945</v>
+        <v>1177</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>1227</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>1139</v>
+        <v>1237</v>
       </c>
       <c r="AF23">
         <v>247288</v>
@@ -12166,17 +12469,17 @@
       <c r="M24" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="N24">
-        <v>503</v>
+      <c r="N24" t="s">
+        <v>1057</v>
       </c>
       <c r="O24" t="s">
-        <v>1057</v>
-      </c>
-      <c r="P24">
-        <v>4291909398</v>
+        <v>1081</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1105</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>1140</v>
+        <v>1238</v>
       </c>
       <c r="AF24">
         <v>5733</v>
@@ -12210,26 +12513,32 @@
       <c r="M25" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="N25">
-        <v>399</v>
+      <c r="N25" t="s">
+        <v>1058</v>
       </c>
       <c r="O25" t="s">
-        <v>1058</v>
-      </c>
-      <c r="P25">
-        <v>2692197</v>
+        <v>1082</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1106</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AA25">
-        <v>1021</v>
-      </c>
-      <c r="AB25">
-        <v>3032</v>
+        <v>1178</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1190</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>1228</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>1141</v>
+        <v>1239</v>
       </c>
       <c r="AF25">
         <v>385</v>
@@ -12266,38 +12575,44 @@
       <c r="M26" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="N26">
-        <v>168</v>
+      <c r="N26" t="s">
+        <v>1059</v>
       </c>
       <c r="O26" t="s">
-        <v>1059</v>
-      </c>
-      <c r="P26">
-        <v>6509411</v>
+        <v>1083</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1107</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>1075</v>
+        <v>1123</v>
       </c>
       <c r="R26" t="s">
-        <v>1090</v>
+        <v>1138</v>
       </c>
       <c r="S26" t="s">
-        <v>1105</v>
+        <v>1153</v>
       </c>
       <c r="T26" t="s">
-        <v>1117</v>
+        <v>1165</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AA26">
-        <v>151</v>
-      </c>
-      <c r="AB26">
-        <v>434</v>
+        <v>1179</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>1229</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>1142</v>
+        <v>1240</v>
       </c>
       <c r="AF26">
         <v>1538</v>
@@ -12325,17 +12640,17 @@
       <c r="M27" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="N27">
-        <v>551</v>
+      <c r="N27" t="s">
+        <v>1060</v>
       </c>
       <c r="O27" t="s">
-        <v>1060</v>
-      </c>
-      <c r="P27">
-        <v>37690557</v>
+        <v>1084</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1108</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>1143</v>
+        <v>1241</v>
       </c>
       <c r="AF27">
         <v>362</v>
@@ -12372,14 +12687,14 @@
       <c r="M28" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="N28">
-        <v>485</v>
+      <c r="N28" t="s">
+        <v>1061</v>
       </c>
       <c r="O28" t="s">
-        <v>1061</v>
-      </c>
-      <c r="P28">
-        <v>5220533590</v>
+        <v>1085</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="29" spans="1:32">

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1199">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -3138,115 +3138,82 @@
     <t>https://www.youtube.com/channel/UCK5Q72Uyo73uRPk8PmM2A3w/videos</t>
   </si>
   <si>
-    <t>2245</t>
-  </si>
-  <si>
-    <t>2034</t>
-  </si>
-  <si>
-    <t>1844</t>
-  </si>
-  <si>
-    <t>3874</t>
-  </si>
-  <si>
-    <t>103</t>
+    <t>2279</t>
+  </si>
+  <si>
+    <t>2065</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>3920</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
   <si>
     <t>1623</t>
   </si>
   <si>
-    <t>1181</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>538</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>485</t>
-  </si>
-  <si>
-    <t>5.63M</t>
-  </si>
-  <si>
-    <t>2.48M</t>
-  </si>
-  <si>
-    <t>1.78M</t>
-  </si>
-  <si>
-    <t>1.47M</t>
-  </si>
-  <si>
-    <t>257K</t>
-  </si>
-  <si>
-    <t>143K</t>
-  </si>
-  <si>
-    <t>97K</t>
-  </si>
-  <si>
-    <t>54K</t>
-  </si>
-  <si>
-    <t>95.3K</t>
-  </si>
-  <si>
-    <t>55.1K</t>
-  </si>
-  <si>
-    <t>42.2K</t>
-  </si>
-  <si>
-    <t>52.5K</t>
-  </si>
-  <si>
-    <t>33.9K</t>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>5.76M</t>
+  </si>
+  <si>
+    <t>2.53M</t>
+  </si>
+  <si>
+    <t>1.83M</t>
+  </si>
+  <si>
+    <t>1.48M</t>
+  </si>
+  <si>
+    <t>370K</t>
+  </si>
+  <si>
+    <t>144K</t>
+  </si>
+  <si>
+    <t>97.1K</t>
+  </si>
+  <si>
+    <t>55.4K</t>
+  </si>
+  <si>
+    <t>123K</t>
+  </si>
+  <si>
+    <t>56.4K</t>
+  </si>
+  <si>
+    <t>43K</t>
+  </si>
+  <si>
+    <t>92.3K</t>
+  </si>
+  <si>
+    <t>66.4K</t>
   </si>
   <si>
     <t>11.8K</t>
@@ -3258,100 +3225,67 @@
     <t>13.7M</t>
   </si>
   <si>
-    <t>700K</t>
-  </si>
-  <si>
-    <t>6.73K</t>
-  </si>
-  <si>
-    <t>5.49M</t>
-  </si>
-  <si>
-    <t>6.06M</t>
-  </si>
-  <si>
-    <t>34.4K</t>
-  </si>
-  <si>
-    <t>88.4K</t>
-  </si>
-  <si>
-    <t>157K</t>
+    <t>685K</t>
+  </si>
+  <si>
+    <t>6.71K</t>
+  </si>
+  <si>
+    <t>5.4M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>34.3K</t>
+  </si>
+  <si>
+    <t>88K</t>
+  </si>
+  <si>
+    <t>156K</t>
   </si>
   <si>
     <t>11.9M</t>
   </si>
   <si>
-    <t>3910394736</t>
-  </si>
-  <si>
-    <t>2557344806</t>
-  </si>
-  <si>
-    <t>1360933213</t>
-  </si>
-  <si>
-    <t>860893093</t>
-  </si>
-  <si>
-    <t>47546251</t>
-  </si>
-  <si>
-    <t>72689216</t>
-  </si>
-  <si>
-    <t>101341092</t>
-  </si>
-  <si>
-    <t>59892859</t>
-  </si>
-  <si>
-    <t>26283414</t>
-  </si>
-  <si>
-    <t>18778856</t>
-  </si>
-  <si>
-    <t>33910814</t>
-  </si>
-  <si>
-    <t>10864445</t>
-  </si>
-  <si>
-    <t>9172398</t>
-  </si>
-  <si>
-    <t>513612</t>
-  </si>
-  <si>
-    <t>9794370</t>
-  </si>
-  <si>
-    <t>5577328217</t>
-  </si>
-  <si>
-    <t>583782003</t>
-  </si>
-  <si>
-    <t>1739119</t>
-  </si>
-  <si>
-    <t>4018764572</t>
-  </si>
-  <si>
-    <t>4320220142</t>
-  </si>
-  <si>
-    <t>2706343</t>
-  </si>
-  <si>
-    <t>6545713</t>
-  </si>
-  <si>
-    <t>37943909</t>
-  </si>
-  <si>
-    <t>5240331696</t>
+    <t>3978532128</t>
+  </si>
+  <si>
+    <t>2581556080</t>
+  </si>
+  <si>
+    <t>1379016605</t>
+  </si>
+  <si>
+    <t>874270969</t>
+  </si>
+  <si>
+    <t>67928960</t>
+  </si>
+  <si>
+    <t>73262104</t>
+  </si>
+  <si>
+    <t>102916385</t>
+  </si>
+  <si>
+    <t>61291865</t>
+  </si>
+  <si>
+    <t>35590495</t>
+  </si>
+  <si>
+    <t>16958227</t>
+  </si>
+  <si>
+    <t>34535260</t>
+  </si>
+  <si>
+    <t>22323588</t>
+  </si>
+  <si>
+    <t>19244603</t>
   </si>
   <si>
     <t>https://www.instagram.com/teamawesmr/</t>
@@ -3396,91 +3330,91 @@
     <t>https://www.instagram.com/techsith/</t>
   </si>
   <si>
-    <t>118</t>
+    <t>144</t>
   </si>
   <si>
     <t>289</t>
   </si>
   <si>
-    <t>86</t>
+    <t>89</t>
   </si>
   <si>
     <t>1,018</t>
   </si>
   <si>
-    <t>1,285</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>1,153</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>1,382</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>1,174</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>454</t>
+    <t>453</t>
   </si>
   <si>
     <t>387</t>
   </si>
   <si>
-    <t>72</t>
+    <t>69</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>43.5k</t>
-  </si>
-  <si>
-    <t>27.3k</t>
-  </si>
-  <si>
-    <t>1,256</t>
-  </si>
-  <si>
-    <t>1,066</t>
-  </si>
-  <si>
-    <t>2,338</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>1,326</t>
-  </si>
-  <si>
-    <t>1,113</t>
-  </si>
-  <si>
-    <t>766</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>32.8k</t>
+    <t>49.5k</t>
+  </si>
+  <si>
+    <t>27.4k</t>
+  </si>
+  <si>
+    <t>1,276</t>
+  </si>
+  <si>
+    <t>1,063</t>
+  </si>
+  <si>
+    <t>2,403</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>1,332</t>
+  </si>
+  <si>
+    <t>1,112</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>32.9k</t>
   </si>
   <si>
     <t>30k</t>
   </si>
   <si>
-    <t>4,763</t>
-  </si>
-  <si>
-    <t>163</t>
+    <t>4,768</t>
+  </si>
+  <si>
+    <t>156</t>
   </si>
   <si>
     <t>116</t>
@@ -3489,34 +3423,34 @@
     <t>38</t>
   </si>
   <si>
-    <t>2,332</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>5,782</t>
+    <t>2,341</t>
+  </si>
+  <si>
+    <t>5,994</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>1,227</t>
-  </si>
-  <si>
-    <t>4,310</t>
-  </si>
-  <si>
-    <t>65</t>
+    <t>482</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>1,217</t>
+  </si>
+  <si>
+    <t>4,315</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
   <si>
     <t>5</t>
@@ -3564,13 +3498,13 @@
     <t>https://twitter.com/techsith1</t>
   </si>
   <si>
-    <t>1058</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>957</t>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>977</t>
   </si>
   <si>
     <t>659</t>
@@ -3579,25 +3513,10 @@
     <t>44</t>
   </si>
   <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>3130</t>
-  </si>
-  <si>
-    <t>19460</t>
-  </si>
-  <si>
-    <t>16318</t>
-  </si>
-  <si>
-    <t>2151</t>
-  </si>
-  <si>
-    <t>923</t>
+    <t>795</t>
+  </si>
+  <si>
+    <t>723</t>
   </si>
   <si>
     <t>57</t>
@@ -3606,70 +3525,37 @@
     <t>16</t>
   </si>
   <si>
-    <t>726</t>
-  </si>
-  <si>
-    <t>1399</t>
+    <t>730</t>
+  </si>
+  <si>
+    <t>1402</t>
   </si>
   <si>
     <t>259</t>
   </si>
   <si>
-    <t>141</t>
+    <t>148</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1538</t>
+    <t>1549</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>2141</t>
-  </si>
-  <si>
-    <t>13557</t>
-  </si>
-  <si>
-    <t>9835</t>
-  </si>
-  <si>
-    <t>1036</t>
-  </si>
-  <si>
-    <t>151</t>
+    <t>142</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>554</t>
   </si>
   <si>
     <t>2049</t>
@@ -3678,40 +3564,25 @@
     <t>4136</t>
   </si>
   <si>
-    <t>1134</t>
+    <t>1141</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>8328</t>
-  </si>
-  <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>1006</t>
+    <t>8327</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>1027</t>
   </si>
   <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>5188</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
-    <t>4945</t>
-  </si>
-  <si>
-    <t>3042</t>
-  </si>
-  <si>
-    <t>434</t>
   </si>
   <si>
     <t>https://www.facebook.com/pstoyreviews</t>
@@ -11141,1693 +11012,1600 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31">
+      <c r="A1" s="1" t="s">
+        <v>904</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>908</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>932</v>
+      </c>
+      <c r="C5" t="s">
+        <v>934</v>
+      </c>
+      <c r="D5" t="s">
+        <v>960</v>
+      </c>
+      <c r="E5" t="s">
+        <v>963</v>
+      </c>
+      <c r="I5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="U5">
+        <v>150000</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>932</v>
+      </c>
+      <c r="C6" t="s">
+        <v>935</v>
+      </c>
+      <c r="D6" t="s">
+        <v>960</v>
+      </c>
+      <c r="E6" t="s">
+        <v>964</v>
+      </c>
+      <c r="I6" t="s">
+        <v>531</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="C7" t="s">
+        <v>936</v>
+      </c>
+      <c r="D7" t="s">
+        <v>960</v>
+      </c>
+      <c r="E7" t="s">
+        <v>965</v>
+      </c>
+      <c r="I7" t="s">
+        <v>531</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="C8" t="s">
+        <v>937</v>
+      </c>
+      <c r="D8" t="s">
+        <v>960</v>
+      </c>
+      <c r="E8" t="s">
+        <v>966</v>
+      </c>
+      <c r="I8" t="s">
+        <v>531</v>
+      </c>
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="1">
+      <c r="L8" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="U8">
+        <v>600</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AE8">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" t="s">
+        <v>932</v>
+      </c>
+      <c r="C9" t="s">
+        <v>938</v>
+      </c>
+      <c r="D9" t="s">
+        <v>960</v>
+      </c>
+      <c r="E9" t="s">
+        <v>967</v>
+      </c>
+      <c r="I9" t="s">
+        <v>531</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="U9">
+        <v>30</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>932</v>
+      </c>
+      <c r="C10" t="s">
+        <v>939</v>
+      </c>
+      <c r="D10" t="s">
+        <v>960</v>
+      </c>
+      <c r="E10" t="s">
+        <v>968</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="I10" t="s">
+        <v>531</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Y10">
+        <v>84</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AB10">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="1">
+      <c r="AC10">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
         <v>932</v>
       </c>
-      <c r="D5" t="s">
-        <v>934</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C11" t="s">
+        <v>940</v>
+      </c>
+      <c r="D11" t="s">
         <v>960</v>
       </c>
-      <c r="F5" t="s">
-        <v>963</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="E11" t="s">
+        <v>969</v>
+      </c>
+      <c r="I11" t="s">
         <v>531</v>
       </c>
-      <c r="K5">
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1086</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="R5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="S5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="K11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="S11" t="s">
         <v>1134</v>
       </c>
-      <c r="V5">
-        <v>150000</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>1180</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="AC5">
+      <c r="U11">
+        <v>30</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AB11">
         <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>932</v>
-      </c>
-      <c r="D6" t="s">
-        <v>935</v>
-      </c>
-      <c r="E6" t="s">
-        <v>960</v>
-      </c>
-      <c r="F6" t="s">
-        <v>964</v>
-      </c>
-      <c r="J6" t="s">
-        <v>531</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>936</v>
-      </c>
-      <c r="E7" t="s">
-        <v>960</v>
-      </c>
-      <c r="F7" t="s">
-        <v>965</v>
-      </c>
-      <c r="J7" t="s">
-        <v>531</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1040</v>
-      </c>
-      <c r="O7" t="s">
-        <v>1064</v>
-      </c>
-      <c r="P7" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>937</v>
-      </c>
-      <c r="E8" t="s">
-        <v>960</v>
-      </c>
-      <c r="F8" t="s">
-        <v>966</v>
-      </c>
-      <c r="J8" t="s">
-        <v>531</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="O8" t="s">
-        <v>1065</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="R8" t="s">
-        <v>1125</v>
-      </c>
-      <c r="S8" t="s">
-        <v>1140</v>
-      </c>
-      <c r="T8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="V8">
-        <v>600</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>1181</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>1204</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>10</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="AF8">
-        <v>5962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>932</v>
-      </c>
-      <c r="D9" t="s">
-        <v>938</v>
-      </c>
-      <c r="E9" t="s">
-        <v>960</v>
-      </c>
-      <c r="F9" t="s">
-        <v>967</v>
-      </c>
-      <c r="J9" t="s">
-        <v>531</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="O9" t="s">
-        <v>1066</v>
-      </c>
-      <c r="P9" t="s">
-        <v>1090</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="R9" t="s">
-        <v>1126</v>
-      </c>
-      <c r="S9" t="s">
-        <v>1141</v>
-      </c>
-      <c r="T9" t="s">
-        <v>1155</v>
-      </c>
-      <c r="V9">
-        <v>30</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>1182</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>932</v>
-      </c>
-      <c r="D10" t="s">
-        <v>939</v>
-      </c>
-      <c r="E10" t="s">
-        <v>960</v>
-      </c>
-      <c r="F10" t="s">
-        <v>968</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="J10" t="s">
-        <v>531</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1067</v>
-      </c>
-      <c r="P10" t="s">
-        <v>1091</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="R10" t="s">
-        <v>1127</v>
-      </c>
-      <c r="S10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="T10" t="s">
-        <v>1156</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>1165</v>
-      </c>
-      <c r="Z10">
-        <v>84</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>1219</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>932</v>
-      </c>
-      <c r="D11" t="s">
-        <v>940</v>
-      </c>
-      <c r="E11" t="s">
-        <v>960</v>
-      </c>
-      <c r="F11" t="s">
-        <v>969</v>
-      </c>
-      <c r="J11" t="s">
-        <v>531</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1005</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="O11" t="s">
-        <v>1068</v>
-      </c>
-      <c r="P11" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="R11" t="s">
-        <v>1128</v>
-      </c>
-      <c r="S11" t="s">
-        <v>1143</v>
-      </c>
-      <c r="T11" t="s">
-        <v>1157</v>
-      </c>
-      <c r="V11">
-        <v>30</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>1183</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>1207</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>1220</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="AF11">
+      <c r="AD11" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AE11">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="1">
+    <row r="12" spans="1:31">
+      <c r="A12" t="s">
+        <v>932</v>
+      </c>
+      <c r="C12" t="s">
+        <v>941</v>
+      </c>
+      <c r="D12" t="s">
+        <v>960</v>
+      </c>
+      <c r="E12" t="s">
+        <v>968</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1058</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1107</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="U12">
+        <v>30</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" t="s">
+        <v>932</v>
+      </c>
+      <c r="C13" t="s">
+        <v>942</v>
+      </c>
+      <c r="D13" t="s">
+        <v>960</v>
+      </c>
+      <c r="E13" t="s">
+        <v>970</v>
+      </c>
+      <c r="I13" t="s">
+        <v>531</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="U13">
+        <v>50</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="AD13" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AE13">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" t="s">
         <v>932</v>
       </c>
-      <c r="D12" t="s">
-        <v>941</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C14" t="s">
+        <v>943</v>
+      </c>
+      <c r="D14" t="s">
         <v>960</v>
       </c>
-      <c r="F12" t="s">
-        <v>968</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="E14" t="s">
+        <v>971</v>
+      </c>
+      <c r="I14" t="s">
+        <v>531</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" t="s">
+        <v>932</v>
+      </c>
+      <c r="C15" t="s">
+        <v>944</v>
+      </c>
+      <c r="D15" t="s">
+        <v>960</v>
+      </c>
+      <c r="E15" t="s">
+        <v>972</v>
+      </c>
+      <c r="I15" t="s">
+        <v>531</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1124</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="U15">
+        <v>30</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AE15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" t="s">
+        <v>932</v>
+      </c>
+      <c r="C16" t="s">
+        <v>945</v>
+      </c>
+      <c r="D16" t="s">
+        <v>960</v>
+      </c>
+      <c r="E16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I16" t="s">
+        <v>532</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1086</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1110</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="U16">
+        <v>100</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" t="s">
+        <v>932</v>
+      </c>
+      <c r="C17" t="s">
+        <v>946</v>
+      </c>
+      <c r="D17" t="s">
+        <v>960</v>
+      </c>
+      <c r="E17" t="s">
+        <v>974</v>
+      </c>
+      <c r="I17" t="s">
+        <v>531</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="U17">
+        <v>30</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" t="s">
+        <v>932</v>
+      </c>
+      <c r="C18" t="s">
+        <v>947</v>
+      </c>
+      <c r="D18" t="s">
+        <v>961</v>
+      </c>
+      <c r="E18" t="s">
+        <v>975</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="I18" t="s">
         <v>1000</v>
       </c>
-      <c r="K12">
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M18">
+        <v>125</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1064</v>
+      </c>
+      <c r="O18">
+        <v>511507</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1112</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1127</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1112</v>
+      </c>
+      <c r="U18">
+        <v>600</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="X18">
+        <v>3127</v>
+      </c>
+      <c r="Y18">
+        <v>732</v>
+      </c>
+      <c r="Z18">
+        <v>2141</v>
+      </c>
+      <c r="AA18">
+        <v>5185</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" t="s">
+        <v>932</v>
+      </c>
+      <c r="C19" t="s">
+        <v>948</v>
+      </c>
+      <c r="D19" t="s">
+        <v>960</v>
+      </c>
+      <c r="E19" t="s">
+        <v>976</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M19">
+        <v>68</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O19">
+        <v>9777119</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1128</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1140</v>
+      </c>
+      <c r="U19">
+        <v>2000</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="X19">
+        <v>19300</v>
+      </c>
+      <c r="Y19">
+        <v>776</v>
+      </c>
+      <c r="Z19">
+        <v>13510</v>
+      </c>
+      <c r="AA19">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" t="s">
+        <v>932</v>
+      </c>
+      <c r="C20" t="s">
+        <v>949</v>
+      </c>
+      <c r="D20" t="s">
+        <v>960</v>
+      </c>
+      <c r="E20" t="s">
+        <v>977</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="I20" t="s">
+        <v>531</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M20">
+        <v>2495</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O20">
+        <v>5566378377</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AE20">
+        <v>1614859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" t="s">
+        <v>932</v>
+      </c>
+      <c r="C21" t="s">
+        <v>950</v>
+      </c>
+      <c r="D21" t="s">
+        <v>960</v>
+      </c>
+      <c r="E21" t="s">
+        <v>978</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="I21" t="s">
+        <v>532</v>
+      </c>
+      <c r="J21">
         <v>4</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="K21" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M21">
+        <v>450</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1067</v>
+      </c>
+      <c r="O21">
+        <v>575683054</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1115</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1130</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AE21">
+        <v>12664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" t="s">
+        <v>932</v>
+      </c>
+      <c r="C22" t="s">
+        <v>951</v>
+      </c>
+      <c r="D22" t="s">
+        <v>960</v>
+      </c>
+      <c r="E22" t="s">
+        <v>979</v>
+      </c>
+      <c r="I22" t="s">
+        <v>531</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="O22">
+        <v>1733344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" t="s">
+        <v>932</v>
+      </c>
+      <c r="C23" t="s">
+        <v>952</v>
+      </c>
+      <c r="D23" t="s">
+        <v>960</v>
+      </c>
+      <c r="E23" t="s">
+        <v>980</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="I23" t="s">
+        <v>531</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M23">
+        <v>160</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1069</v>
+      </c>
+      <c r="O23">
+        <v>3976901103</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Z23">
+        <v>9835</v>
+      </c>
+      <c r="AA23">
+        <v>4945</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AE23">
+        <v>247288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" t="s">
+        <v>932</v>
+      </c>
+      <c r="C24" t="s">
+        <v>953</v>
+      </c>
+      <c r="D24" t="s">
+        <v>960</v>
+      </c>
+      <c r="E24" t="s">
+        <v>981</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="I24" t="s">
+        <v>531</v>
+      </c>
+      <c r="J24" s="3">
+        <v>43588</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M24">
+        <v>503</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O24">
+        <v>4291909398</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AE24">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="C25" t="s">
+        <v>954</v>
+      </c>
+      <c r="D25" t="s">
+        <v>960</v>
+      </c>
+      <c r="E25" t="s">
+        <v>982</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="I25" t="s">
+        <v>531</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M25">
+        <v>399</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O25">
+        <v>2692197</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z25">
         <v>1021</v>
       </c>
-      <c r="N12" t="s">
-        <v>1045</v>
-      </c>
-      <c r="O12" t="s">
-        <v>1069</v>
-      </c>
-      <c r="P12" t="s">
-        <v>1093</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="R12" t="s">
-        <v>1129</v>
-      </c>
-      <c r="S12" t="s">
-        <v>1144</v>
-      </c>
-      <c r="T12" t="s">
-        <v>1158</v>
-      </c>
-      <c r="V12">
-        <v>30</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>1184</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>1208</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="AA25">
+        <v>3032</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AE25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" t="s">
         <v>932</v>
       </c>
-      <c r="D13" t="s">
-        <v>942</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C26" t="s">
+        <v>955</v>
+      </c>
+      <c r="D26" t="s">
         <v>960</v>
       </c>
-      <c r="F13" t="s">
-        <v>970</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="E26" t="s">
+        <v>983</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="I26" t="s">
         <v>531</v>
       </c>
-      <c r="K13">
+      <c r="J26">
         <v>4</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="N13" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1070</v>
-      </c>
-      <c r="P13" t="s">
-        <v>1094</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="K26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M26">
+        <v>168</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="O26">
+        <v>6509411</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q26" t="s">
         <v>1116</v>
       </c>
-      <c r="R13" t="s">
-        <v>1130</v>
-      </c>
-      <c r="S13" t="s">
-        <v>1145</v>
-      </c>
-      <c r="T13" t="s">
-        <v>1061</v>
-      </c>
-      <c r="V13">
-        <v>50</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>1185</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>1209</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-      <c r="AD13">
-        <v>10</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AF13">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="R26" t="s">
+        <v>1131</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1143</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="Z26">
+        <v>151</v>
+      </c>
+      <c r="AA26">
+        <v>434</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AE26">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" t="s">
         <v>932</v>
       </c>
-      <c r="D14" t="s">
-        <v>943</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C27" t="s">
+        <v>956</v>
+      </c>
+      <c r="D27" t="s">
         <v>960</v>
       </c>
-      <c r="F14" t="s">
-        <v>971</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="E27" t="s">
+        <v>984</v>
+      </c>
+      <c r="I27" t="s">
         <v>531</v>
       </c>
-      <c r="K14">
+      <c r="L27" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M27">
+        <v>551</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1073</v>
+      </c>
+      <c r="O27">
+        <v>37690557</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AE27">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" t="s">
+        <v>933</v>
+      </c>
+      <c r="C28" t="s">
+        <v>957</v>
+      </c>
+      <c r="D28" t="s">
+        <v>960</v>
+      </c>
+      <c r="E28" t="s">
+        <v>985</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="I28" t="s">
+        <v>531</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M28">
+        <v>485</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O28">
+        <v>5220533590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" t="s">
+        <v>932</v>
+      </c>
+      <c r="C29" t="s">
+        <v>958</v>
+      </c>
+      <c r="D29" t="s">
+        <v>962</v>
+      </c>
+      <c r="E29" t="s">
+        <v>986</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" t="s">
+        <v>932</v>
+      </c>
+      <c r="C30" t="s">
+        <v>959</v>
+      </c>
+      <c r="D30" t="s">
+        <v>962</v>
+      </c>
+      <c r="E30" t="s">
+        <v>987</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="I30" t="s">
+        <v>531</v>
+      </c>
+      <c r="J30">
         <v>3</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1047</v>
-      </c>
-      <c r="O14" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P14" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>932</v>
-      </c>
-      <c r="D15" t="s">
-        <v>944</v>
-      </c>
-      <c r="E15" t="s">
-        <v>960</v>
-      </c>
-      <c r="F15" t="s">
-        <v>972</v>
-      </c>
-      <c r="J15" t="s">
-        <v>531</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="N15" t="s">
-        <v>1048</v>
-      </c>
-      <c r="O15" t="s">
-        <v>1072</v>
-      </c>
-      <c r="P15" t="s">
-        <v>1096</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="R15" t="s">
-        <v>1131</v>
-      </c>
-      <c r="S15" t="s">
-        <v>1146</v>
-      </c>
-      <c r="T15" t="s">
-        <v>1159</v>
-      </c>
-      <c r="V15">
-        <v>30</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="AF15">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>932</v>
-      </c>
-      <c r="D16" t="s">
-        <v>945</v>
-      </c>
-      <c r="E16" t="s">
-        <v>960</v>
-      </c>
-      <c r="F16" t="s">
-        <v>973</v>
-      </c>
-      <c r="J16" t="s">
-        <v>532</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="N16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="O16" t="s">
-        <v>1073</v>
-      </c>
-      <c r="P16" t="s">
-        <v>1097</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="R16" t="s">
-        <v>1132</v>
-      </c>
-      <c r="S16" t="s">
-        <v>1147</v>
-      </c>
-      <c r="T16" t="s">
-        <v>1160</v>
-      </c>
-      <c r="V16">
-        <v>100</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>1186</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>1210</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>932</v>
-      </c>
-      <c r="D17" t="s">
-        <v>946</v>
-      </c>
-      <c r="E17" t="s">
-        <v>960</v>
-      </c>
-      <c r="F17" t="s">
-        <v>974</v>
-      </c>
-      <c r="J17" t="s">
-        <v>531</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="O17" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P17" t="s">
-        <v>1098</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="R17" t="s">
-        <v>1133</v>
-      </c>
-      <c r="S17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="T17" t="s">
-        <v>1161</v>
-      </c>
-      <c r="V17">
-        <v>30</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="Y17">
-        <v>2</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>932</v>
-      </c>
-      <c r="D18" t="s">
-        <v>947</v>
-      </c>
-      <c r="E18" t="s">
-        <v>961</v>
-      </c>
-      <c r="F18" t="s">
-        <v>975</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1000</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="N18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="O18" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P18" t="s">
-        <v>1099</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="R18" t="s">
-        <v>1134</v>
-      </c>
-      <c r="S18" t="s">
-        <v>1149</v>
-      </c>
-      <c r="T18" t="s">
-        <v>1134</v>
-      </c>
-      <c r="V18">
-        <v>600</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>1187</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>43467</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>932</v>
-      </c>
-      <c r="D19" t="s">
-        <v>948</v>
-      </c>
-      <c r="E19" t="s">
-        <v>960</v>
-      </c>
-      <c r="F19" t="s">
-        <v>976</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19" t="s">
-        <v>1008</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="N19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="O19" t="s">
-        <v>1076</v>
-      </c>
-      <c r="P19" t="s">
-        <v>1100</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="R19" t="s">
-        <v>1135</v>
-      </c>
-      <c r="S19" t="s">
-        <v>1150</v>
-      </c>
-      <c r="T19" t="s">
-        <v>1162</v>
-      </c>
-      <c r="V19">
-        <v>2000</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>1188</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>1200</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>1212</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>932</v>
-      </c>
-      <c r="D20" t="s">
-        <v>949</v>
-      </c>
-      <c r="E20" t="s">
-        <v>960</v>
-      </c>
-      <c r="F20" t="s">
-        <v>977</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="J20" t="s">
-        <v>531</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20" t="s">
-        <v>1009</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="O20" t="s">
-        <v>1077</v>
-      </c>
-      <c r="P20" t="s">
-        <v>1101</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="R20" t="s">
-        <v>1136</v>
-      </c>
-      <c r="S20" t="s">
-        <v>1151</v>
-      </c>
-      <c r="T20" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>1235</v>
-      </c>
-      <c r="AF20">
-        <v>1614859</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>932</v>
-      </c>
-      <c r="D21" t="s">
-        <v>950</v>
-      </c>
-      <c r="E21" t="s">
-        <v>960</v>
-      </c>
-      <c r="F21" t="s">
-        <v>978</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="J21" t="s">
-        <v>532</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="L21" t="s">
-        <v>1010</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N21" t="s">
-        <v>1054</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1078</v>
-      </c>
-      <c r="P21" t="s">
-        <v>1102</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="R21" t="s">
-        <v>1137</v>
-      </c>
-      <c r="S21" t="s">
-        <v>1152</v>
-      </c>
-      <c r="T21" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AF21">
-        <v>12664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>932</v>
-      </c>
-      <c r="D22" t="s">
-        <v>951</v>
-      </c>
-      <c r="E22" t="s">
-        <v>960</v>
-      </c>
-      <c r="F22" t="s">
-        <v>979</v>
-      </c>
-      <c r="J22" t="s">
-        <v>531</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N22" t="s">
-        <v>1055</v>
-      </c>
-      <c r="O22" t="s">
-        <v>1079</v>
-      </c>
-      <c r="P22" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>932</v>
-      </c>
-      <c r="D23" t="s">
-        <v>952</v>
-      </c>
-      <c r="E23" t="s">
-        <v>960</v>
-      </c>
-      <c r="F23" t="s">
-        <v>980</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="J23" t="s">
-        <v>531</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N23" t="s">
-        <v>1056</v>
-      </c>
-      <c r="O23" t="s">
-        <v>1080</v>
-      </c>
-      <c r="P23" t="s">
-        <v>1104</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>1189</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="AF23">
-        <v>247288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>932</v>
-      </c>
-      <c r="D24" t="s">
-        <v>953</v>
-      </c>
-      <c r="E24" t="s">
-        <v>960</v>
-      </c>
-      <c r="F24" t="s">
-        <v>981</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="J24" t="s">
-        <v>531</v>
-      </c>
-      <c r="K24" s="3">
-        <v>43588</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N24" t="s">
-        <v>1057</v>
-      </c>
-      <c r="O24" t="s">
-        <v>1081</v>
-      </c>
-      <c r="P24" t="s">
-        <v>1105</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="AF24">
-        <v>5733</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>954</v>
-      </c>
-      <c r="E25" t="s">
-        <v>960</v>
-      </c>
-      <c r="F25" t="s">
-        <v>982</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="J25" t="s">
-        <v>531</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1058</v>
-      </c>
-      <c r="O25" t="s">
-        <v>1082</v>
-      </c>
-      <c r="P25" t="s">
-        <v>1106</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>1190</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>1228</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="AF25">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>932</v>
-      </c>
-      <c r="D26" t="s">
-        <v>955</v>
-      </c>
-      <c r="E26" t="s">
-        <v>960</v>
-      </c>
-      <c r="F26" t="s">
-        <v>983</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="J26" t="s">
-        <v>531</v>
-      </c>
-      <c r="K26">
-        <v>4</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N26" t="s">
-        <v>1059</v>
-      </c>
-      <c r="O26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="P26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="R26" t="s">
-        <v>1138</v>
-      </c>
-      <c r="S26" t="s">
-        <v>1153</v>
-      </c>
-      <c r="T26" t="s">
-        <v>1165</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>1191</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>1229</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="AF26">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>932</v>
-      </c>
-      <c r="D27" t="s">
-        <v>956</v>
-      </c>
-      <c r="E27" t="s">
-        <v>960</v>
-      </c>
-      <c r="F27" t="s">
-        <v>984</v>
-      </c>
-      <c r="J27" t="s">
-        <v>531</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N27" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O27" t="s">
-        <v>1084</v>
-      </c>
-      <c r="P27" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="AF27">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>933</v>
-      </c>
-      <c r="D28" t="s">
-        <v>957</v>
-      </c>
-      <c r="E28" t="s">
-        <v>960</v>
-      </c>
-      <c r="F28" t="s">
-        <v>985</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="J28" t="s">
-        <v>531</v>
-      </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="L28" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="N28" t="s">
-        <v>1061</v>
-      </c>
-      <c r="O28" t="s">
-        <v>1085</v>
-      </c>
-      <c r="P28" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>932</v>
-      </c>
-      <c r="D29" t="s">
-        <v>958</v>
-      </c>
-      <c r="E29" t="s">
-        <v>962</v>
-      </c>
-      <c r="F29" t="s">
-        <v>986</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>932</v>
-      </c>
-      <c r="D30" t="s">
-        <v>959</v>
-      </c>
-      <c r="E30" t="s">
-        <v>962</v>
-      </c>
-      <c r="F30" t="s">
-        <v>987</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="J30" t="s">
-        <v>531</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1"/>
-    <hyperlink ref="Q5" r:id="rId2"/>
-    <hyperlink ref="X5" r:id="rId3"/>
-    <hyperlink ref="M6" r:id="rId4"/>
-    <hyperlink ref="M7" r:id="rId5"/>
-    <hyperlink ref="M8" r:id="rId6"/>
-    <hyperlink ref="Q8" r:id="rId7"/>
-    <hyperlink ref="X8" r:id="rId8"/>
-    <hyperlink ref="AE8" r:id="rId9"/>
-    <hyperlink ref="M9" r:id="rId10"/>
-    <hyperlink ref="Q9" r:id="rId11"/>
-    <hyperlink ref="X9" r:id="rId12"/>
-    <hyperlink ref="H10" r:id="rId13"/>
-    <hyperlink ref="M10" r:id="rId14"/>
-    <hyperlink ref="Q10" r:id="rId15"/>
-    <hyperlink ref="X10" r:id="rId16"/>
-    <hyperlink ref="M11" r:id="rId17"/>
-    <hyperlink ref="Q11" r:id="rId18"/>
-    <hyperlink ref="X11" r:id="rId19"/>
-    <hyperlink ref="AE11" r:id="rId20"/>
-    <hyperlink ref="H12" r:id="rId21"/>
-    <hyperlink ref="M12" r:id="rId22"/>
-    <hyperlink ref="Q12" r:id="rId23"/>
-    <hyperlink ref="X12" r:id="rId24"/>
-    <hyperlink ref="M13" r:id="rId25"/>
-    <hyperlink ref="Q13" r:id="rId26"/>
-    <hyperlink ref="X13" r:id="rId27"/>
-    <hyperlink ref="AE13" r:id="rId28"/>
-    <hyperlink ref="M14" r:id="rId29"/>
-    <hyperlink ref="M15" r:id="rId30"/>
-    <hyperlink ref="Q15" r:id="rId31"/>
-    <hyperlink ref="AE15" r:id="rId32"/>
-    <hyperlink ref="M16" r:id="rId33"/>
-    <hyperlink ref="Q16" r:id="rId34"/>
-    <hyperlink ref="X16" r:id="rId35"/>
-    <hyperlink ref="M17" r:id="rId36"/>
-    <hyperlink ref="Q17" r:id="rId37"/>
-    <hyperlink ref="X17" r:id="rId38"/>
-    <hyperlink ref="H18" r:id="rId39"/>
-    <hyperlink ref="M18" r:id="rId40"/>
-    <hyperlink ref="Q18" r:id="rId41"/>
-    <hyperlink ref="X18" r:id="rId42"/>
-    <hyperlink ref="AE18" r:id="rId43"/>
-    <hyperlink ref="M19" r:id="rId44"/>
-    <hyperlink ref="Q19" r:id="rId45"/>
-    <hyperlink ref="X19" r:id="rId46"/>
-    <hyperlink ref="H20" r:id="rId47"/>
-    <hyperlink ref="M20" r:id="rId48"/>
-    <hyperlink ref="Q20" r:id="rId49"/>
-    <hyperlink ref="AE20" r:id="rId50"/>
-    <hyperlink ref="H21" r:id="rId51"/>
-    <hyperlink ref="M21" r:id="rId52"/>
-    <hyperlink ref="Q21" r:id="rId53"/>
-    <hyperlink ref="AE21" r:id="rId54"/>
-    <hyperlink ref="M22" r:id="rId55"/>
-    <hyperlink ref="H23" r:id="rId56"/>
-    <hyperlink ref="M23" r:id="rId57"/>
-    <hyperlink ref="X23" r:id="rId58"/>
-    <hyperlink ref="AE23" r:id="rId59"/>
-    <hyperlink ref="H24" r:id="rId60"/>
-    <hyperlink ref="M24" r:id="rId61"/>
-    <hyperlink ref="AE24" r:id="rId62"/>
-    <hyperlink ref="H25" r:id="rId63"/>
-    <hyperlink ref="M25" r:id="rId64"/>
-    <hyperlink ref="X25" r:id="rId65"/>
-    <hyperlink ref="AE25" r:id="rId66"/>
-    <hyperlink ref="H26" r:id="rId67"/>
-    <hyperlink ref="M26" r:id="rId68"/>
-    <hyperlink ref="Q26" r:id="rId69"/>
-    <hyperlink ref="X26" r:id="rId70"/>
-    <hyperlink ref="AE26" r:id="rId71"/>
-    <hyperlink ref="M27" r:id="rId72"/>
-    <hyperlink ref="AE27" r:id="rId73"/>
-    <hyperlink ref="H28" r:id="rId74"/>
-    <hyperlink ref="M28" r:id="rId75"/>
-    <hyperlink ref="H29" r:id="rId76"/>
-    <hyperlink ref="H30" r:id="rId77"/>
+    <hyperlink ref="L5" r:id="rId1"/>
+    <hyperlink ref="P5" r:id="rId2"/>
+    <hyperlink ref="W5" r:id="rId3"/>
+    <hyperlink ref="L6" r:id="rId4"/>
+    <hyperlink ref="L7" r:id="rId5"/>
+    <hyperlink ref="L8" r:id="rId6"/>
+    <hyperlink ref="P8" r:id="rId7"/>
+    <hyperlink ref="W8" r:id="rId8"/>
+    <hyperlink ref="AD8" r:id="rId9"/>
+    <hyperlink ref="L9" r:id="rId10"/>
+    <hyperlink ref="P9" r:id="rId11"/>
+    <hyperlink ref="W9" r:id="rId12"/>
+    <hyperlink ref="G10" r:id="rId13"/>
+    <hyperlink ref="L10" r:id="rId14"/>
+    <hyperlink ref="P10" r:id="rId15"/>
+    <hyperlink ref="W10" r:id="rId16"/>
+    <hyperlink ref="L11" r:id="rId17"/>
+    <hyperlink ref="P11" r:id="rId18"/>
+    <hyperlink ref="W11" r:id="rId19"/>
+    <hyperlink ref="AD11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="L12" r:id="rId22"/>
+    <hyperlink ref="P12" r:id="rId23"/>
+    <hyperlink ref="W12" r:id="rId24"/>
+    <hyperlink ref="L13" r:id="rId25"/>
+    <hyperlink ref="P13" r:id="rId26"/>
+    <hyperlink ref="W13" r:id="rId27"/>
+    <hyperlink ref="AD13" r:id="rId28"/>
+    <hyperlink ref="L14" r:id="rId29"/>
+    <hyperlink ref="L15" r:id="rId30"/>
+    <hyperlink ref="P15" r:id="rId31"/>
+    <hyperlink ref="AD15" r:id="rId32"/>
+    <hyperlink ref="L16" r:id="rId33"/>
+    <hyperlink ref="P16" r:id="rId34"/>
+    <hyperlink ref="W16" r:id="rId35"/>
+    <hyperlink ref="L17" r:id="rId36"/>
+    <hyperlink ref="P17" r:id="rId37"/>
+    <hyperlink ref="W17" r:id="rId38"/>
+    <hyperlink ref="G18" r:id="rId39"/>
+    <hyperlink ref="L18" r:id="rId40"/>
+    <hyperlink ref="P18" r:id="rId41"/>
+    <hyperlink ref="W18" r:id="rId42"/>
+    <hyperlink ref="AD18" r:id="rId43"/>
+    <hyperlink ref="L19" r:id="rId44"/>
+    <hyperlink ref="P19" r:id="rId45"/>
+    <hyperlink ref="W19" r:id="rId46"/>
+    <hyperlink ref="G20" r:id="rId47"/>
+    <hyperlink ref="L20" r:id="rId48"/>
+    <hyperlink ref="P20" r:id="rId49"/>
+    <hyperlink ref="AD20" r:id="rId50"/>
+    <hyperlink ref="G21" r:id="rId51"/>
+    <hyperlink ref="L21" r:id="rId52"/>
+    <hyperlink ref="P21" r:id="rId53"/>
+    <hyperlink ref="AD21" r:id="rId54"/>
+    <hyperlink ref="L22" r:id="rId55"/>
+    <hyperlink ref="G23" r:id="rId56"/>
+    <hyperlink ref="L23" r:id="rId57"/>
+    <hyperlink ref="W23" r:id="rId58"/>
+    <hyperlink ref="AD23" r:id="rId59"/>
+    <hyperlink ref="G24" r:id="rId60"/>
+    <hyperlink ref="L24" r:id="rId61"/>
+    <hyperlink ref="AD24" r:id="rId62"/>
+    <hyperlink ref="G25" r:id="rId63"/>
+    <hyperlink ref="L25" r:id="rId64"/>
+    <hyperlink ref="W25" r:id="rId65"/>
+    <hyperlink ref="AD25" r:id="rId66"/>
+    <hyperlink ref="G26" r:id="rId67"/>
+    <hyperlink ref="L26" r:id="rId68"/>
+    <hyperlink ref="P26" r:id="rId69"/>
+    <hyperlink ref="W26" r:id="rId70"/>
+    <hyperlink ref="AD26" r:id="rId71"/>
+    <hyperlink ref="L27" r:id="rId72"/>
+    <hyperlink ref="AD27" r:id="rId73"/>
+    <hyperlink ref="G28" r:id="rId74"/>
+    <hyperlink ref="L28" r:id="rId75"/>
+    <hyperlink ref="G29" r:id="rId76"/>
+    <hyperlink ref="G30" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1240">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -3147,10 +3147,10 @@
     <t>1866</t>
   </si>
   <si>
-    <t>3920</t>
-  </si>
-  <si>
-    <t>111</t>
+    <t>3921</t>
+  </si>
+  <si>
+    <t>112</t>
   </si>
   <si>
     <t>1623</t>
@@ -3162,7 +3162,7 @@
     <t>1256</t>
   </si>
   <si>
-    <t>226</t>
+    <t>227</t>
   </si>
   <si>
     <t>284</t>
@@ -3177,7 +3177,40 @@
     <t>33</t>
   </si>
   <si>
-    <t>5.76M</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>2545</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>5.77M</t>
   </si>
   <si>
     <t>2.53M</t>
@@ -3189,7 +3222,7 @@
     <t>1.48M</t>
   </si>
   <si>
-    <t>370K</t>
+    <t>373K</t>
   </si>
   <si>
     <t>144K</t>
@@ -3201,91 +3234,121 @@
     <t>55.4K</t>
   </si>
   <si>
-    <t>123K</t>
+    <t>124K</t>
   </si>
   <si>
     <t>56.4K</t>
   </si>
   <si>
-    <t>43K</t>
-  </si>
-  <si>
-    <t>92.3K</t>
-  </si>
-  <si>
-    <t>66.4K</t>
-  </si>
-  <si>
-    <t>11.8K</t>
-  </si>
-  <si>
-    <t>239K</t>
-  </si>
-  <si>
-    <t>13.7M</t>
-  </si>
-  <si>
-    <t>685K</t>
-  </si>
-  <si>
-    <t>6.71K</t>
-  </si>
-  <si>
-    <t>5.4M</t>
-  </si>
-  <si>
-    <t>6M</t>
-  </si>
-  <si>
-    <t>34.3K</t>
-  </si>
-  <si>
-    <t>88K</t>
-  </si>
-  <si>
-    <t>156K</t>
-  </si>
-  <si>
-    <t>11.9M</t>
-  </si>
-  <si>
-    <t>3978532128</t>
-  </si>
-  <si>
-    <t>2581556080</t>
-  </si>
-  <si>
-    <t>1379016605</t>
-  </si>
-  <si>
-    <t>874270969</t>
-  </si>
-  <si>
-    <t>67928960</t>
-  </si>
-  <si>
-    <t>73262104</t>
-  </si>
-  <si>
-    <t>102916385</t>
-  </si>
-  <si>
-    <t>61291865</t>
-  </si>
-  <si>
-    <t>35590495</t>
-  </si>
-  <si>
-    <t>16958227</t>
-  </si>
-  <si>
-    <t>34535260</t>
-  </si>
-  <si>
-    <t>22323588</t>
-  </si>
-  <si>
-    <t>19244603</t>
+    <t>43.1K</t>
+  </si>
+  <si>
+    <t>93.5K</t>
+  </si>
+  <si>
+    <t>69.4K</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>246K</t>
+  </si>
+  <si>
+    <t>14.1M</t>
+  </si>
+  <si>
+    <t>835K</t>
+  </si>
+  <si>
+    <t>6.94K</t>
+  </si>
+  <si>
+    <t>6.3M</t>
+  </si>
+  <si>
+    <t>6.48M</t>
+  </si>
+  <si>
+    <t>92.2K</t>
+  </si>
+  <si>
+    <t>167K</t>
+  </si>
+  <si>
+    <t>12.7M</t>
+  </si>
+  <si>
+    <t>3980867842</t>
+  </si>
+  <si>
+    <t>2582359283</t>
+  </si>
+  <si>
+    <t>1379511884</t>
+  </si>
+  <si>
+    <t>874662593</t>
+  </si>
+  <si>
+    <t>68691343</t>
+  </si>
+  <si>
+    <t>73279057</t>
+  </si>
+  <si>
+    <t>102958564</t>
+  </si>
+  <si>
+    <t>61319131</t>
+  </si>
+  <si>
+    <t>35875442</t>
+  </si>
+  <si>
+    <t>16963924</t>
+  </si>
+  <si>
+    <t>34556510</t>
+  </si>
+  <si>
+    <t>22721523</t>
+  </si>
+  <si>
+    <t>20088488</t>
+  </si>
+  <si>
+    <t>523597</t>
+  </si>
+  <si>
+    <t>10186655</t>
+  </si>
+  <si>
+    <t>5749403195</t>
+  </si>
+  <si>
+    <t>669008754</t>
+  </si>
+  <si>
+    <t>1828962</t>
+  </si>
+  <si>
+    <t>4472336318</t>
+  </si>
+  <si>
+    <t>4558384287</t>
+  </si>
+  <si>
+    <t>2873831</t>
+  </si>
+  <si>
+    <t>6891161</t>
+  </si>
+  <si>
+    <t>40254561</t>
+  </si>
+  <si>
+    <t>5501391400</t>
   </si>
   <si>
     <t>https://www.instagram.com/teamawesmr/</t>
@@ -3330,28 +3393,28 @@
     <t>https://www.instagram.com/techsith/</t>
   </si>
   <si>
-    <t>144</t>
+    <t>145</t>
   </si>
   <si>
     <t>289</t>
   </si>
   <si>
-    <t>89</t>
+    <t>90</t>
   </si>
   <si>
     <t>1,018</t>
   </si>
   <si>
-    <t>1,382</t>
+    <t>1,383</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>1,174</t>
+    <t>287</t>
+  </si>
+  <si>
+    <t>1,175</t>
   </si>
   <si>
     <t>297</t>
@@ -3363,70 +3426,70 @@
     <t>0</t>
   </si>
   <si>
-    <t>453</t>
+    <t>461</t>
   </si>
   <si>
     <t>387</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>49.5k</t>
+  </si>
+  <si>
+    <t>27.4k</t>
+  </si>
+  <si>
+    <t>1,277</t>
+  </si>
+  <si>
+    <t>1,063</t>
+  </si>
+  <si>
+    <t>2,403</t>
+  </si>
+  <si>
+    <t>1,332</t>
+  </si>
+  <si>
+    <t>1,110</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>32.1k</t>
+  </si>
+  <si>
+    <t>31.4k</t>
+  </si>
+  <si>
+    <t>4,789</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2,341</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>49.5k</t>
-  </si>
-  <si>
-    <t>27.4k</t>
-  </si>
-  <si>
-    <t>1,276</t>
-  </si>
-  <si>
-    <t>1,063</t>
-  </si>
-  <si>
-    <t>2,403</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>1,332</t>
-  </si>
-  <si>
-    <t>1,112</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>682</t>
-  </si>
-  <si>
-    <t>32.9k</t>
-  </si>
-  <si>
-    <t>30k</t>
-  </si>
-  <si>
-    <t>4,768</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2,341</t>
-  </si>
-  <si>
-    <t>5,994</t>
+    <t>5,993</t>
   </si>
   <si>
     <t>2</t>
@@ -3444,13 +3507,13 @@
     <t>504</t>
   </si>
   <si>
-    <t>1,217</t>
-  </si>
-  <si>
-    <t>4,315</t>
-  </si>
-  <si>
-    <t>64</t>
+    <t>1,334</t>
+  </si>
+  <si>
+    <t>4,292</t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
   <si>
     <t>5</t>
@@ -3498,34 +3561,49 @@
     <t>https://twitter.com/techsith1</t>
   </si>
   <si>
-    <t>1056</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>977</t>
-  </si>
-  <si>
-    <t>659</t>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>658</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>795</t>
+    <t>780</t>
   </si>
   <si>
     <t>723</t>
   </si>
   <si>
+    <t>3174</t>
+  </si>
+  <si>
+    <t>20582</t>
+  </si>
+  <si>
+    <t>17137</t>
+  </si>
+  <si>
+    <t>2215</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
     <t>57</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>730</t>
+    <t>732</t>
   </si>
   <si>
     <t>1402</t>
@@ -3540,10 +3618,25 @@
     <t>8</t>
   </si>
   <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>1549</t>
+    <t>1550</t>
   </si>
   <si>
     <t>9</t>
@@ -3558,13 +3651,28 @@
     <t>554</t>
   </si>
   <si>
+    <t>2182</t>
+  </si>
+  <si>
+    <t>14020</t>
+  </si>
+  <si>
+    <t>9777</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
     <t>2049</t>
   </si>
   <si>
     <t>4136</t>
   </si>
   <si>
-    <t>1141</t>
+    <t>1144</t>
   </si>
   <si>
     <t>47</t>
@@ -3576,13 +3684,28 @@
     <t>802</t>
   </si>
   <si>
-    <t>280</t>
+    <t>281</t>
   </si>
   <si>
     <t>1027</t>
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>5245</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>4917</t>
+  </si>
+  <si>
+    <t>3114</t>
+  </si>
+  <si>
+    <t>437</t>
   </si>
   <si>
     <t>https://www.facebook.com/pstoyreviews</t>
@@ -11175,40 +11298,40 @@
         <v>1038</v>
       </c>
       <c r="N5" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="O5" t="s">
-        <v>1075</v>
+        <v>1085</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>1088</v>
+        <v>1109</v>
       </c>
       <c r="Q5" t="s">
-        <v>1102</v>
+        <v>1123</v>
       </c>
       <c r="R5" t="s">
-        <v>1117</v>
+        <v>1138</v>
       </c>
       <c r="S5" t="s">
-        <v>1112</v>
+        <v>1133</v>
       </c>
       <c r="U5">
         <v>150000</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>1144</v>
+        <v>1165</v>
       </c>
       <c r="X5" t="s">
-        <v>1158</v>
+        <v>1179</v>
       </c>
       <c r="Y5" t="s">
-        <v>1165</v>
+        <v>1191</v>
       </c>
       <c r="Z5" t="s">
-        <v>1172</v>
+        <v>1203</v>
       </c>
       <c r="AA5" t="s">
-        <v>1178</v>
+        <v>1214</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -11246,10 +11369,10 @@
         <v>1039</v>
       </c>
       <c r="N6" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="O6" t="s">
-        <v>1076</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -11275,10 +11398,10 @@
         <v>1040</v>
       </c>
       <c r="N7" t="s">
-        <v>1053</v>
+        <v>1064</v>
       </c>
       <c r="O7" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -11304,40 +11427,40 @@
         <v>1041</v>
       </c>
       <c r="N8" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
       <c r="O8" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>1089</v>
+        <v>1110</v>
       </c>
       <c r="Q8" t="s">
-        <v>1103</v>
+        <v>1124</v>
       </c>
       <c r="R8" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="S8" t="s">
-        <v>1132</v>
+        <v>1152</v>
       </c>
       <c r="U8">
         <v>600</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>1145</v>
+        <v>1166</v>
       </c>
       <c r="X8" t="s">
-        <v>1159</v>
+        <v>1180</v>
       </c>
       <c r="Y8" t="s">
-        <v>1166</v>
+        <v>1192</v>
       </c>
       <c r="Z8" t="s">
-        <v>1107</v>
+        <v>1128</v>
       </c>
       <c r="AA8" t="s">
-        <v>1179</v>
+        <v>1215</v>
       </c>
       <c r="AB8">
         <v>1</v>
@@ -11346,7 +11469,7 @@
         <v>10</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>1187</v>
+        <v>1228</v>
       </c>
       <c r="AE8">
         <v>5962</v>
@@ -11378,40 +11501,40 @@
         <v>1042</v>
       </c>
       <c r="N9" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="O9" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>1090</v>
+        <v>1111</v>
       </c>
       <c r="Q9" t="s">
-        <v>1104</v>
+        <v>1125</v>
       </c>
       <c r="R9" t="s">
-        <v>1119</v>
+        <v>1140</v>
       </c>
       <c r="S9" t="s">
-        <v>1133</v>
+        <v>1153</v>
       </c>
       <c r="U9">
         <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>1146</v>
+        <v>1167</v>
       </c>
       <c r="X9" t="s">
-        <v>1160</v>
+        <v>1181</v>
       </c>
       <c r="Y9" t="s">
-        <v>1167</v>
+        <v>1193</v>
       </c>
       <c r="Z9" t="s">
-        <v>1173</v>
+        <v>1204</v>
       </c>
       <c r="AA9" t="s">
-        <v>1180</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -11443,37 +11566,37 @@
         <v>1043</v>
       </c>
       <c r="N10" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="O10" t="s">
-        <v>1080</v>
+        <v>1090</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>1091</v>
+        <v>1112</v>
       </c>
       <c r="Q10" t="s">
-        <v>1105</v>
+        <v>1126</v>
       </c>
       <c r="R10" t="s">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="S10" t="s">
-        <v>1115</v>
+        <v>1154</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>1147</v>
+        <v>1168</v>
       </c>
       <c r="X10" t="s">
-        <v>1143</v>
+        <v>1164</v>
       </c>
       <c r="Y10">
         <v>84</v>
       </c>
       <c r="Z10" t="s">
-        <v>1174</v>
+        <v>1205</v>
       </c>
       <c r="AA10" t="s">
-        <v>1181</v>
+        <v>1217</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -11511,40 +11634,40 @@
         <v>1044</v>
       </c>
       <c r="N11" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
       <c r="O11" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>1092</v>
+        <v>1113</v>
       </c>
       <c r="Q11" t="s">
-        <v>1106</v>
+        <v>1127</v>
       </c>
       <c r="R11" t="s">
-        <v>1121</v>
+        <v>1142</v>
       </c>
       <c r="S11" t="s">
-        <v>1134</v>
+        <v>1155</v>
       </c>
       <c r="U11">
         <v>30</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>1148</v>
+        <v>1169</v>
       </c>
       <c r="X11" t="s">
-        <v>1161</v>
+        <v>1182</v>
       </c>
       <c r="Y11" t="s">
-        <v>1168</v>
+        <v>1194</v>
       </c>
       <c r="Z11" t="s">
         <v>1050</v>
       </c>
       <c r="AA11" t="s">
-        <v>1182</v>
+        <v>1218</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -11553,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>1188</v>
+        <v>1229</v>
       </c>
       <c r="AE11">
         <v>188</v>
@@ -11588,40 +11711,40 @@
         <v>1045</v>
       </c>
       <c r="N12" t="s">
-        <v>1058</v>
+        <v>1069</v>
       </c>
       <c r="O12" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1093</v>
+        <v>1114</v>
       </c>
       <c r="Q12" t="s">
-        <v>1107</v>
+        <v>1128</v>
       </c>
       <c r="R12" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="S12" t="s">
-        <v>1135</v>
+        <v>1156</v>
       </c>
       <c r="U12">
         <v>30</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>1149</v>
+        <v>1170</v>
       </c>
       <c r="X12" t="s">
-        <v>1162</v>
+        <v>1183</v>
       </c>
       <c r="Y12" t="s">
-        <v>1166</v>
+        <v>1192</v>
       </c>
       <c r="Z12" t="s">
-        <v>1175</v>
+        <v>1206</v>
       </c>
       <c r="AA12" t="s">
-        <v>1183</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -11650,40 +11773,40 @@
         <v>1046</v>
       </c>
       <c r="N13" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="O13" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>1094</v>
+        <v>1115</v>
       </c>
       <c r="Q13" t="s">
-        <v>1108</v>
+        <v>1129</v>
       </c>
       <c r="R13" t="s">
-        <v>1123</v>
+        <v>1143</v>
       </c>
       <c r="S13" t="s">
-        <v>1136</v>
+        <v>1157</v>
       </c>
       <c r="U13">
         <v>50</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>1150</v>
+        <v>1171</v>
       </c>
       <c r="X13" t="s">
-        <v>1163</v>
+        <v>1184</v>
       </c>
       <c r="Y13" t="s">
-        <v>1169</v>
+        <v>1195</v>
       </c>
       <c r="Z13" t="s">
-        <v>1176</v>
+        <v>1207</v>
       </c>
       <c r="AA13" t="s">
-        <v>1184</v>
+        <v>1220</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -11692,7 +11815,7 @@
         <v>10</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>1189</v>
+        <v>1230</v>
       </c>
       <c r="AE13">
         <v>236</v>
@@ -11724,10 +11847,10 @@
         <v>1047</v>
       </c>
       <c r="N14" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
       <c r="O14" t="s">
-        <v>1084</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -11756,28 +11879,28 @@
         <v>1048</v>
       </c>
       <c r="N15" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="O15" t="s">
-        <v>1085</v>
+        <v>1095</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>1095</v>
+        <v>1116</v>
       </c>
       <c r="Q15" t="s">
-        <v>1109</v>
+        <v>1130</v>
       </c>
       <c r="R15" t="s">
-        <v>1124</v>
+        <v>1144</v>
       </c>
       <c r="S15" t="s">
-        <v>1137</v>
+        <v>1158</v>
       </c>
       <c r="U15">
         <v>30</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>1190</v>
+        <v>1231</v>
       </c>
       <c r="AE15">
         <v>57</v>
@@ -11812,40 +11935,40 @@
         <v>1049</v>
       </c>
       <c r="N16" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="O16" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>1096</v>
+        <v>1117</v>
       </c>
       <c r="Q16" t="s">
-        <v>1110</v>
+        <v>1131</v>
       </c>
       <c r="R16" t="s">
-        <v>1125</v>
+        <v>1145</v>
       </c>
       <c r="S16" t="s">
-        <v>1138</v>
+        <v>1159</v>
       </c>
       <c r="U16">
         <v>100</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>1151</v>
+        <v>1172</v>
       </c>
       <c r="X16" t="s">
-        <v>1164</v>
+        <v>1185</v>
       </c>
       <c r="Y16" t="s">
-        <v>1170</v>
+        <v>1196</v>
       </c>
       <c r="Z16" t="s">
-        <v>1177</v>
+        <v>1208</v>
       </c>
       <c r="AA16" t="s">
-        <v>1185</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -11874,37 +11997,37 @@
         <v>1050</v>
       </c>
       <c r="N17" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="O17" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>1097</v>
+        <v>1118</v>
       </c>
       <c r="Q17" t="s">
-        <v>1111</v>
+        <v>1132</v>
       </c>
       <c r="R17" t="s">
-        <v>1126</v>
+        <v>1146</v>
       </c>
       <c r="S17" t="s">
-        <v>1139</v>
+        <v>1160</v>
       </c>
       <c r="U17">
         <v>30</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>1152</v>
+        <v>1173</v>
       </c>
       <c r="X17">
         <v>2</v>
       </c>
       <c r="Y17" t="s">
-        <v>1171</v>
+        <v>1197</v>
       </c>
       <c r="AA17" t="s">
-        <v>1186</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -11935,47 +12058,47 @@
       <c r="L18" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="M18">
-        <v>125</v>
+      <c r="M18" t="s">
+        <v>1051</v>
       </c>
       <c r="N18" t="s">
-        <v>1064</v>
-      </c>
-      <c r="O18">
-        <v>511507</v>
+        <v>1075</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1098</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>1027</v>
       </c>
       <c r="Q18" t="s">
-        <v>1112</v>
+        <v>1133</v>
       </c>
       <c r="R18" t="s">
-        <v>1127</v>
+        <v>1147</v>
       </c>
       <c r="S18" t="s">
-        <v>1112</v>
+        <v>1133</v>
       </c>
       <c r="U18">
         <v>600</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="X18">
-        <v>3127</v>
-      </c>
-      <c r="Y18">
-        <v>732</v>
-      </c>
-      <c r="Z18">
-        <v>2141</v>
-      </c>
-      <c r="AA18">
-        <v>5185</v>
+        <v>1174</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1223</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>1191</v>
+        <v>1232</v>
       </c>
       <c r="AE18" s="3">
         <v>43467</v>
@@ -12006,44 +12129,44 @@
       <c r="L19" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="M19">
-        <v>68</v>
+      <c r="M19" t="s">
+        <v>1052</v>
       </c>
       <c r="N19" t="s">
-        <v>1065</v>
-      </c>
-      <c r="O19">
-        <v>9777119</v>
+        <v>1076</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1099</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>1098</v>
+        <v>1119</v>
       </c>
       <c r="Q19" t="s">
-        <v>1113</v>
+        <v>1134</v>
       </c>
       <c r="R19" t="s">
-        <v>1128</v>
+        <v>1148</v>
       </c>
       <c r="S19" t="s">
-        <v>1140</v>
+        <v>1161</v>
       </c>
       <c r="U19">
         <v>2000</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="X19">
-        <v>19300</v>
-      </c>
-      <c r="Y19">
-        <v>776</v>
-      </c>
-      <c r="Z19">
-        <v>13510</v>
-      </c>
-      <c r="AA19">
-        <v>1945</v>
+        <v>1175</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -12074,29 +12197,29 @@
       <c r="L20" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="M20">
-        <v>2495</v>
+      <c r="M20" t="s">
+        <v>1053</v>
       </c>
       <c r="N20" t="s">
-        <v>1066</v>
-      </c>
-      <c r="O20">
-        <v>5566378377</v>
+        <v>1077</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1100</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>1099</v>
+        <v>1120</v>
       </c>
       <c r="Q20" t="s">
-        <v>1114</v>
+        <v>1135</v>
       </c>
       <c r="R20" t="s">
-        <v>1129</v>
+        <v>1149</v>
       </c>
       <c r="S20" t="s">
-        <v>1141</v>
+        <v>1162</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>1192</v>
+        <v>1233</v>
       </c>
       <c r="AE20">
         <v>1614859</v>
@@ -12130,29 +12253,29 @@
       <c r="L21" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="M21">
-        <v>450</v>
+      <c r="M21" t="s">
+        <v>1054</v>
       </c>
       <c r="N21" t="s">
-        <v>1067</v>
-      </c>
-      <c r="O21">
-        <v>575683054</v>
+        <v>1078</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1101</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>1100</v>
+        <v>1121</v>
       </c>
       <c r="Q21" t="s">
-        <v>1115</v>
+        <v>1136</v>
       </c>
       <c r="R21" t="s">
-        <v>1130</v>
+        <v>1150</v>
       </c>
       <c r="S21" t="s">
-        <v>1142</v>
+        <v>1163</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>1193</v>
+        <v>1234</v>
       </c>
       <c r="AE21">
         <v>12664</v>
@@ -12180,14 +12303,14 @@
       <c r="L22" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="M22">
-        <v>20</v>
+      <c r="M22" t="s">
+        <v>1055</v>
       </c>
       <c r="N22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="O22">
-        <v>1733344</v>
+        <v>1079</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -12215,26 +12338,32 @@
       <c r="L23" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="M23">
-        <v>160</v>
+      <c r="M23" t="s">
+        <v>1056</v>
       </c>
       <c r="N23" t="s">
-        <v>1069</v>
-      </c>
-      <c r="O23">
-        <v>3976901103</v>
+        <v>1080</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1103</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Z23">
-        <v>9835</v>
-      </c>
-      <c r="AA23">
-        <v>4945</v>
+        <v>1176</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1225</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>1194</v>
+        <v>1235</v>
       </c>
       <c r="AE23">
         <v>247288</v>
@@ -12265,17 +12394,17 @@
       <c r="L24" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="M24">
-        <v>503</v>
+      <c r="M24" t="s">
+        <v>1057</v>
       </c>
       <c r="N24" t="s">
-        <v>1070</v>
-      </c>
-      <c r="O24">
-        <v>4291909398</v>
+        <v>1081</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1104</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>1195</v>
+        <v>1236</v>
       </c>
       <c r="AE24">
         <v>5733</v>
@@ -12306,26 +12435,32 @@
       <c r="L25" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="M25">
-        <v>399</v>
+      <c r="M25" t="s">
+        <v>1058</v>
       </c>
       <c r="N25" t="s">
-        <v>1071</v>
-      </c>
-      <c r="O25">
-        <v>2692197</v>
+        <v>1072</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1105</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Z25">
-        <v>1021</v>
-      </c>
-      <c r="AA25">
-        <v>3032</v>
+        <v>1177</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1226</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>1196</v>
+        <v>1237</v>
       </c>
       <c r="AE25">
         <v>385</v>
@@ -12359,38 +12494,44 @@
       <c r="L26" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="M26">
-        <v>168</v>
+      <c r="M26" t="s">
+        <v>1059</v>
       </c>
       <c r="N26" t="s">
-        <v>1072</v>
-      </c>
-      <c r="O26">
-        <v>6509411</v>
+        <v>1082</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1106</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>1101</v>
+        <v>1122</v>
       </c>
       <c r="Q26" t="s">
-        <v>1116</v>
+        <v>1137</v>
       </c>
       <c r="R26" t="s">
-        <v>1131</v>
+        <v>1151</v>
       </c>
       <c r="S26" t="s">
-        <v>1143</v>
+        <v>1164</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="Z26">
-        <v>151</v>
-      </c>
-      <c r="AA26">
-        <v>434</v>
+        <v>1178</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1190</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1227</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>1197</v>
+        <v>1238</v>
       </c>
       <c r="AE26">
         <v>1538</v>
@@ -12415,17 +12556,17 @@
       <c r="L27" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="M27">
-        <v>551</v>
+      <c r="M27" t="s">
+        <v>1060</v>
       </c>
       <c r="N27" t="s">
-        <v>1073</v>
-      </c>
-      <c r="O27">
-        <v>37690557</v>
+        <v>1083</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1107</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>1198</v>
+        <v>1239</v>
       </c>
       <c r="AE27">
         <v>362</v>
@@ -12459,14 +12600,14 @@
       <c r="L28" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="M28">
-        <v>485</v>
+      <c r="M28" t="s">
+        <v>1061</v>
       </c>
       <c r="N28" t="s">
-        <v>1074</v>
-      </c>
-      <c r="O28">
-        <v>5220533590</v>
+        <v>1084</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="29" spans="1:31">
